--- a/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
+++ b/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="11595" yWindow="0" windowWidth="17235" windowHeight="14115" tabRatio="822"/>
+    <workbookView xWindow="11595" yWindow="0" windowWidth="17235" windowHeight="14115" tabRatio="822" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -2388,6 +2388,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2454,45 +2535,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2529,49 +2574,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2583,35 +2613,83 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2712,82 +2790,151 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2816,153 +2963,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6404,7 +6404,7 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7097,7 +7097,7 @@
   </sheetPr>
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -7107,57 +7107,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="245" t="s">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="199" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="247"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="217" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="199" t="s">
+      <c r="P1" s="218"/>
+      <c r="Q1" s="218"/>
+      <c r="R1" s="219"/>
+      <c r="S1" s="226" t="s">
         <v>149</v>
       </c>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="227"/>
+      <c r="U1" s="227"/>
+      <c r="V1" s="227"/>
+      <c r="W1" s="227"/>
+      <c r="X1" s="227"/>
+      <c r="Y1" s="227"/>
+      <c r="Z1" s="228"/>
+      <c r="AA1" s="211" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="190" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="239">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="184">
         <f>IF(D8="","",D8)</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="240"/>
-      <c r="AI1" s="241"/>
+      <c r="AH1" s="185"/>
+      <c r="AI1" s="186"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -7165,53 +7165,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="245" t="s">
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="202"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="204"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="222"/>
+      <c r="S2" s="229"/>
+      <c r="T2" s="230"/>
+      <c r="U2" s="230"/>
+      <c r="V2" s="230"/>
+      <c r="W2" s="230"/>
+      <c r="X2" s="230"/>
+      <c r="Y2" s="230"/>
+      <c r="Z2" s="231"/>
+      <c r="AA2" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="242" t="str">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="187" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="243"/>
-      <c r="AE2" s="243"/>
-      <c r="AF2" s="244"/>
-      <c r="AG2" s="239" t="str">
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="189"/>
+      <c r="AG2" s="184" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="240"/>
-      <c r="AI2" s="241"/>
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="186"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -7219,45 +7219,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="245" t="s">
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="199" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="206"/>
-      <c r="U3" s="206"/>
-      <c r="V3" s="206"/>
-      <c r="W3" s="206"/>
-      <c r="X3" s="206"/>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="207"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218"/>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="239"/>
-      <c r="AH3" s="240"/>
-      <c r="AI3" s="241"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="223"/>
+      <c r="P3" s="224"/>
+      <c r="Q3" s="224"/>
+      <c r="R3" s="225"/>
+      <c r="S3" s="232"/>
+      <c r="T3" s="233"/>
+      <c r="U3" s="233"/>
+      <c r="V3" s="233"/>
+      <c r="W3" s="233"/>
+      <c r="X3" s="233"/>
+      <c r="Y3" s="233"/>
+      <c r="Z3" s="234"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="216"/>
+      <c r="AC3" s="190"/>
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="184"/>
+      <c r="AH3" s="185"/>
+      <c r="AI3" s="186"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -7396,52 +7396,52 @@
       <c r="A7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="214" t="s">
+      <c r="C7" s="204"/>
+      <c r="D7" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="216"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="214" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="216"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="217" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="235" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="216"/>
-      <c r="L7" s="216"/>
-      <c r="M7" s="216"/>
-      <c r="N7" s="216"/>
-      <c r="O7" s="216"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="214" t="s">
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="216"/>
-      <c r="S7" s="216"/>
-      <c r="T7" s="216"/>
-      <c r="U7" s="216"/>
-      <c r="V7" s="216"/>
-      <c r="W7" s="216"/>
-      <c r="X7" s="216"/>
-      <c r="Y7" s="216"/>
-      <c r="Z7" s="216"/>
-      <c r="AA7" s="216"/>
-      <c r="AB7" s="216"/>
-      <c r="AC7" s="216"/>
-      <c r="AD7" s="216"/>
-      <c r="AE7" s="215"/>
-      <c r="AF7" s="214" t="s">
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="204"/>
+      <c r="AF7" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="216"/>
-      <c r="AH7" s="216"/>
-      <c r="AI7" s="215"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="204"/>
       <c r="AJ7" s="40"/>
       <c r="AK7" s="40"/>
       <c r="AL7" s="40"/>
@@ -7452,52 +7452,52 @@
       <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="221" t="s">
+      <c r="B8" s="236" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="222"/>
-      <c r="D8" s="223">
+      <c r="C8" s="237"/>
+      <c r="D8" s="238">
         <v>43634</v>
       </c>
-      <c r="E8" s="224"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="221" t="s">
+      <c r="E8" s="239"/>
+      <c r="F8" s="240"/>
+      <c r="G8" s="236" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="226"/>
-      <c r="I8" s="222"/>
-      <c r="J8" s="227" t="s">
+      <c r="H8" s="241"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="242" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="228"/>
-      <c r="L8" s="228"/>
-      <c r="M8" s="228"/>
-      <c r="N8" s="228"/>
-      <c r="O8" s="228"/>
-      <c r="P8" s="229"/>
-      <c r="Q8" s="230" t="s">
+      <c r="K8" s="243"/>
+      <c r="L8" s="243"/>
+      <c r="M8" s="243"/>
+      <c r="N8" s="243"/>
+      <c r="O8" s="243"/>
+      <c r="P8" s="244"/>
+      <c r="Q8" s="245" t="s">
         <v>83</v>
       </c>
-      <c r="R8" s="231"/>
-      <c r="S8" s="231"/>
-      <c r="T8" s="231"/>
-      <c r="U8" s="231"/>
-      <c r="V8" s="231"/>
-      <c r="W8" s="231"/>
-      <c r="X8" s="231"/>
-      <c r="Y8" s="231"/>
-      <c r="Z8" s="231"/>
-      <c r="AA8" s="231"/>
-      <c r="AB8" s="231"/>
-      <c r="AC8" s="231"/>
-      <c r="AD8" s="231"/>
-      <c r="AE8" s="232"/>
-      <c r="AF8" s="227" t="s">
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
+      <c r="T8" s="246"/>
+      <c r="U8" s="246"/>
+      <c r="V8" s="246"/>
+      <c r="W8" s="246"/>
+      <c r="X8" s="246"/>
+      <c r="Y8" s="246"/>
+      <c r="Z8" s="246"/>
+      <c r="AA8" s="246"/>
+      <c r="AB8" s="246"/>
+      <c r="AC8" s="246"/>
+      <c r="AD8" s="246"/>
+      <c r="AE8" s="247"/>
+      <c r="AF8" s="242" t="s">
         <v>84</v>
       </c>
-      <c r="AG8" s="228"/>
-      <c r="AH8" s="228"/>
-      <c r="AI8" s="229"/>
+      <c r="AG8" s="243"/>
+      <c r="AH8" s="243"/>
+      <c r="AI8" s="244"/>
       <c r="AJ8" s="40"/>
       <c r="AK8" s="40"/>
       <c r="AL8" s="40"/>
@@ -7506,40 +7506,40 @@
     </row>
     <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
-      <c r="B9" s="208"/>
-      <c r="C9" s="209"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="208"/>
-      <c r="H9" s="213"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="233"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="234"/>
-      <c r="N9" s="234"/>
-      <c r="O9" s="234"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="236"/>
-      <c r="R9" s="237"/>
-      <c r="S9" s="237"/>
-      <c r="T9" s="237"/>
-      <c r="U9" s="237"/>
-      <c r="V9" s="237"/>
-      <c r="W9" s="237"/>
-      <c r="X9" s="237"/>
-      <c r="Y9" s="237"/>
-      <c r="Z9" s="237"/>
-      <c r="AA9" s="237"/>
-      <c r="AB9" s="237"/>
-      <c r="AC9" s="237"/>
-      <c r="AD9" s="237"/>
-      <c r="AE9" s="238"/>
-      <c r="AF9" s="233"/>
-      <c r="AG9" s="234"/>
-      <c r="AH9" s="234"/>
-      <c r="AI9" s="235"/>
+      <c r="B9" s="205"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="208"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="206"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="195"/>
+      <c r="Q9" s="196"/>
+      <c r="R9" s="197"/>
+      <c r="S9" s="197"/>
+      <c r="T9" s="197"/>
+      <c r="U9" s="197"/>
+      <c r="V9" s="197"/>
+      <c r="W9" s="197"/>
+      <c r="X9" s="197"/>
+      <c r="Y9" s="197"/>
+      <c r="Z9" s="197"/>
+      <c r="AA9" s="197"/>
+      <c r="AB9" s="197"/>
+      <c r="AC9" s="197"/>
+      <c r="AD9" s="197"/>
+      <c r="AE9" s="198"/>
+      <c r="AF9" s="193"/>
+      <c r="AG9" s="194"/>
+      <c r="AH9" s="194"/>
+      <c r="AI9" s="195"/>
       <c r="AJ9" s="40"/>
       <c r="AK9" s="40"/>
       <c r="AL9" s="40"/>
@@ -7548,40 +7548,40 @@
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
-      <c r="B10" s="208"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="213"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="233"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="234"/>
-      <c r="M10" s="234"/>
-      <c r="N10" s="234"/>
-      <c r="O10" s="234"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="236"/>
-      <c r="R10" s="237"/>
-      <c r="S10" s="237"/>
-      <c r="T10" s="237"/>
-      <c r="U10" s="237"/>
-      <c r="V10" s="237"/>
-      <c r="W10" s="237"/>
-      <c r="X10" s="237"/>
-      <c r="Y10" s="237"/>
-      <c r="Z10" s="237"/>
-      <c r="AA10" s="237"/>
-      <c r="AB10" s="237"/>
-      <c r="AC10" s="237"/>
-      <c r="AD10" s="237"/>
-      <c r="AE10" s="238"/>
-      <c r="AF10" s="233"/>
-      <c r="AG10" s="234"/>
-      <c r="AH10" s="234"/>
-      <c r="AI10" s="235"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="195"/>
+      <c r="Q10" s="196"/>
+      <c r="R10" s="197"/>
+      <c r="S10" s="197"/>
+      <c r="T10" s="197"/>
+      <c r="U10" s="197"/>
+      <c r="V10" s="197"/>
+      <c r="W10" s="197"/>
+      <c r="X10" s="197"/>
+      <c r="Y10" s="197"/>
+      <c r="Z10" s="197"/>
+      <c r="AA10" s="197"/>
+      <c r="AB10" s="197"/>
+      <c r="AC10" s="197"/>
+      <c r="AD10" s="197"/>
+      <c r="AE10" s="198"/>
+      <c r="AF10" s="193"/>
+      <c r="AG10" s="194"/>
+      <c r="AH10" s="194"/>
+      <c r="AI10" s="195"/>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="40"/>
       <c r="AL10" s="40"/>
@@ -7590,40 +7590,40 @@
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
-      <c r="B11" s="208"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="212"/>
-      <c r="G11" s="208"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="233"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="234"/>
-      <c r="M11" s="234"/>
-      <c r="N11" s="234"/>
-      <c r="O11" s="234"/>
-      <c r="P11" s="235"/>
-      <c r="Q11" s="236"/>
-      <c r="R11" s="237"/>
-      <c r="S11" s="237"/>
-      <c r="T11" s="237"/>
-      <c r="U11" s="237"/>
-      <c r="V11" s="237"/>
-      <c r="W11" s="237"/>
-      <c r="X11" s="237"/>
-      <c r="Y11" s="237"/>
-      <c r="Z11" s="237"/>
-      <c r="AA11" s="237"/>
-      <c r="AB11" s="237"/>
-      <c r="AC11" s="237"/>
-      <c r="AD11" s="237"/>
-      <c r="AE11" s="238"/>
-      <c r="AF11" s="233"/>
-      <c r="AG11" s="234"/>
-      <c r="AH11" s="234"/>
-      <c r="AI11" s="235"/>
+      <c r="B11" s="205"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="205"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="194"/>
+      <c r="O11" s="194"/>
+      <c r="P11" s="195"/>
+      <c r="Q11" s="196"/>
+      <c r="R11" s="197"/>
+      <c r="S11" s="197"/>
+      <c r="T11" s="197"/>
+      <c r="U11" s="197"/>
+      <c r="V11" s="197"/>
+      <c r="W11" s="197"/>
+      <c r="X11" s="197"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="197"/>
+      <c r="AA11" s="197"/>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="197"/>
+      <c r="AD11" s="197"/>
+      <c r="AE11" s="198"/>
+      <c r="AF11" s="193"/>
+      <c r="AG11" s="194"/>
+      <c r="AH11" s="194"/>
+      <c r="AI11" s="195"/>
       <c r="AJ11" s="40"/>
       <c r="AK11" s="40"/>
       <c r="AL11" s="40"/>
@@ -7632,40 +7632,40 @@
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
-      <c r="B12" s="208"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="208"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="209"/>
-      <c r="J12" s="233"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="234"/>
-      <c r="M12" s="234"/>
-      <c r="N12" s="234"/>
-      <c r="O12" s="234"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="236"/>
-      <c r="R12" s="237"/>
-      <c r="S12" s="237"/>
-      <c r="T12" s="237"/>
-      <c r="U12" s="237"/>
-      <c r="V12" s="237"/>
-      <c r="W12" s="237"/>
-      <c r="X12" s="237"/>
-      <c r="Y12" s="237"/>
-      <c r="Z12" s="237"/>
-      <c r="AA12" s="237"/>
-      <c r="AB12" s="237"/>
-      <c r="AC12" s="237"/>
-      <c r="AD12" s="237"/>
-      <c r="AE12" s="238"/>
-      <c r="AF12" s="233"/>
-      <c r="AG12" s="234"/>
-      <c r="AH12" s="234"/>
-      <c r="AI12" s="235"/>
+      <c r="B12" s="205"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="208"/>
+      <c r="F12" s="209"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="206"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="195"/>
+      <c r="Q12" s="196"/>
+      <c r="R12" s="197"/>
+      <c r="S12" s="197"/>
+      <c r="T12" s="197"/>
+      <c r="U12" s="197"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="197"/>
+      <c r="X12" s="197"/>
+      <c r="Y12" s="197"/>
+      <c r="Z12" s="197"/>
+      <c r="AA12" s="197"/>
+      <c r="AB12" s="197"/>
+      <c r="AC12" s="197"/>
+      <c r="AD12" s="197"/>
+      <c r="AE12" s="198"/>
+      <c r="AF12" s="193"/>
+      <c r="AG12" s="194"/>
+      <c r="AH12" s="194"/>
+      <c r="AI12" s="195"/>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="40"/>
       <c r="AL12" s="40"/>
@@ -7674,40 +7674,40 @@
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
-      <c r="B13" s="208"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="212"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="233"/>
-      <c r="K13" s="234"/>
-      <c r="L13" s="234"/>
-      <c r="M13" s="234"/>
-      <c r="N13" s="234"/>
-      <c r="O13" s="234"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="236"/>
-      <c r="R13" s="237"/>
-      <c r="S13" s="237"/>
-      <c r="T13" s="237"/>
-      <c r="U13" s="237"/>
-      <c r="V13" s="237"/>
-      <c r="W13" s="237"/>
-      <c r="X13" s="237"/>
-      <c r="Y13" s="237"/>
-      <c r="Z13" s="237"/>
-      <c r="AA13" s="237"/>
-      <c r="AB13" s="237"/>
-      <c r="AC13" s="237"/>
-      <c r="AD13" s="237"/>
-      <c r="AE13" s="238"/>
-      <c r="AF13" s="233"/>
-      <c r="AG13" s="234"/>
-      <c r="AH13" s="234"/>
-      <c r="AI13" s="235"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="206"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="208"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="206"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="195"/>
+      <c r="Q13" s="196"/>
+      <c r="R13" s="197"/>
+      <c r="S13" s="197"/>
+      <c r="T13" s="197"/>
+      <c r="U13" s="197"/>
+      <c r="V13" s="197"/>
+      <c r="W13" s="197"/>
+      <c r="X13" s="197"/>
+      <c r="Y13" s="197"/>
+      <c r="Z13" s="197"/>
+      <c r="AA13" s="197"/>
+      <c r="AB13" s="197"/>
+      <c r="AC13" s="197"/>
+      <c r="AD13" s="197"/>
+      <c r="AE13" s="198"/>
+      <c r="AF13" s="193"/>
+      <c r="AG13" s="194"/>
+      <c r="AH13" s="194"/>
+      <c r="AI13" s="195"/>
       <c r="AJ13" s="40"/>
       <c r="AK13" s="40"/>
       <c r="AL13" s="40"/>
@@ -7716,40 +7716,40 @@
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
-      <c r="B14" s="208"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="211"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="213"/>
-      <c r="I14" s="209"/>
-      <c r="J14" s="233"/>
-      <c r="K14" s="234"/>
-      <c r="L14" s="234"/>
-      <c r="M14" s="234"/>
-      <c r="N14" s="234"/>
-      <c r="O14" s="234"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="236"/>
-      <c r="R14" s="237"/>
-      <c r="S14" s="237"/>
-      <c r="T14" s="237"/>
-      <c r="U14" s="237"/>
-      <c r="V14" s="237"/>
-      <c r="W14" s="237"/>
-      <c r="X14" s="237"/>
-      <c r="Y14" s="237"/>
-      <c r="Z14" s="237"/>
-      <c r="AA14" s="237"/>
-      <c r="AB14" s="237"/>
-      <c r="AC14" s="237"/>
-      <c r="AD14" s="237"/>
-      <c r="AE14" s="238"/>
-      <c r="AF14" s="233"/>
-      <c r="AG14" s="234"/>
-      <c r="AH14" s="234"/>
-      <c r="AI14" s="235"/>
+      <c r="B14" s="205"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="205"/>
+      <c r="H14" s="210"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="194"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="195"/>
+      <c r="Q14" s="196"/>
+      <c r="R14" s="197"/>
+      <c r="S14" s="197"/>
+      <c r="T14" s="197"/>
+      <c r="U14" s="197"/>
+      <c r="V14" s="197"/>
+      <c r="W14" s="197"/>
+      <c r="X14" s="197"/>
+      <c r="Y14" s="197"/>
+      <c r="Z14" s="197"/>
+      <c r="AA14" s="197"/>
+      <c r="AB14" s="197"/>
+      <c r="AC14" s="197"/>
+      <c r="AD14" s="197"/>
+      <c r="AE14" s="198"/>
+      <c r="AF14" s="193"/>
+      <c r="AG14" s="194"/>
+      <c r="AH14" s="194"/>
+      <c r="AI14" s="195"/>
       <c r="AJ14" s="40"/>
       <c r="AK14" s="40"/>
       <c r="AL14" s="40"/>
@@ -7758,40 +7758,40 @@
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31"/>
-      <c r="B15" s="208"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="212"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="209"/>
-      <c r="J15" s="233"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="234"/>
-      <c r="M15" s="234"/>
-      <c r="N15" s="234"/>
-      <c r="O15" s="234"/>
-      <c r="P15" s="235"/>
-      <c r="Q15" s="236"/>
-      <c r="R15" s="237"/>
-      <c r="S15" s="237"/>
-      <c r="T15" s="237"/>
-      <c r="U15" s="237"/>
-      <c r="V15" s="237"/>
-      <c r="W15" s="237"/>
-      <c r="X15" s="237"/>
-      <c r="Y15" s="237"/>
-      <c r="Z15" s="237"/>
-      <c r="AA15" s="237"/>
-      <c r="AB15" s="237"/>
-      <c r="AC15" s="237"/>
-      <c r="AD15" s="237"/>
-      <c r="AE15" s="238"/>
-      <c r="AF15" s="233"/>
-      <c r="AG15" s="234"/>
-      <c r="AH15" s="234"/>
-      <c r="AI15" s="235"/>
+      <c r="B15" s="205"/>
+      <c r="C15" s="206"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="208"/>
+      <c r="F15" s="209"/>
+      <c r="G15" s="205"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="195"/>
+      <c r="Q15" s="196"/>
+      <c r="R15" s="197"/>
+      <c r="S15" s="197"/>
+      <c r="T15" s="197"/>
+      <c r="U15" s="197"/>
+      <c r="V15" s="197"/>
+      <c r="W15" s="197"/>
+      <c r="X15" s="197"/>
+      <c r="Y15" s="197"/>
+      <c r="Z15" s="197"/>
+      <c r="AA15" s="197"/>
+      <c r="AB15" s="197"/>
+      <c r="AC15" s="197"/>
+      <c r="AD15" s="197"/>
+      <c r="AE15" s="198"/>
+      <c r="AF15" s="193"/>
+      <c r="AG15" s="194"/>
+      <c r="AH15" s="194"/>
+      <c r="AI15" s="195"/>
       <c r="AJ15" s="40"/>
       <c r="AK15" s="40"/>
       <c r="AL15" s="40"/>
@@ -7800,40 +7800,40 @@
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31"/>
-      <c r="B16" s="208"/>
-      <c r="C16" s="209"/>
-      <c r="D16" s="210"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="212"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="209"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="234"/>
-      <c r="L16" s="234"/>
-      <c r="M16" s="234"/>
-      <c r="N16" s="234"/>
-      <c r="O16" s="234"/>
-      <c r="P16" s="235"/>
-      <c r="Q16" s="236"/>
-      <c r="R16" s="237"/>
-      <c r="S16" s="237"/>
-      <c r="T16" s="237"/>
-      <c r="U16" s="237"/>
-      <c r="V16" s="237"/>
-      <c r="W16" s="237"/>
-      <c r="X16" s="237"/>
-      <c r="Y16" s="237"/>
-      <c r="Z16" s="237"/>
-      <c r="AA16" s="237"/>
-      <c r="AB16" s="237"/>
-      <c r="AC16" s="237"/>
-      <c r="AD16" s="237"/>
-      <c r="AE16" s="238"/>
-      <c r="AF16" s="233"/>
-      <c r="AG16" s="234"/>
-      <c r="AH16" s="234"/>
-      <c r="AI16" s="235"/>
+      <c r="B16" s="205"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="210"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="195"/>
+      <c r="Q16" s="196"/>
+      <c r="R16" s="197"/>
+      <c r="S16" s="197"/>
+      <c r="T16" s="197"/>
+      <c r="U16" s="197"/>
+      <c r="V16" s="197"/>
+      <c r="W16" s="197"/>
+      <c r="X16" s="197"/>
+      <c r="Y16" s="197"/>
+      <c r="Z16" s="197"/>
+      <c r="AA16" s="197"/>
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="197"/>
+      <c r="AD16" s="197"/>
+      <c r="AE16" s="198"/>
+      <c r="AF16" s="193"/>
+      <c r="AG16" s="194"/>
+      <c r="AH16" s="194"/>
+      <c r="AI16" s="195"/>
       <c r="AJ16" s="40"/>
       <c r="AK16" s="40"/>
       <c r="AL16" s="40"/>
@@ -7842,40 +7842,40 @@
     </row>
     <row r="17" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31"/>
-      <c r="B17" s="208"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="209"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="234"/>
-      <c r="L17" s="234"/>
-      <c r="M17" s="234"/>
-      <c r="N17" s="234"/>
-      <c r="O17" s="234"/>
-      <c r="P17" s="235"/>
-      <c r="Q17" s="236"/>
-      <c r="R17" s="237"/>
-      <c r="S17" s="237"/>
-      <c r="T17" s="237"/>
-      <c r="U17" s="237"/>
-      <c r="V17" s="237"/>
-      <c r="W17" s="237"/>
-      <c r="X17" s="237"/>
-      <c r="Y17" s="237"/>
-      <c r="Z17" s="237"/>
-      <c r="AA17" s="237"/>
-      <c r="AB17" s="237"/>
-      <c r="AC17" s="237"/>
-      <c r="AD17" s="237"/>
-      <c r="AE17" s="238"/>
-      <c r="AF17" s="233"/>
-      <c r="AG17" s="234"/>
-      <c r="AH17" s="234"/>
-      <c r="AI17" s="235"/>
+      <c r="B17" s="205"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="205"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="195"/>
+      <c r="Q17" s="196"/>
+      <c r="R17" s="197"/>
+      <c r="S17" s="197"/>
+      <c r="T17" s="197"/>
+      <c r="U17" s="197"/>
+      <c r="V17" s="197"/>
+      <c r="W17" s="197"/>
+      <c r="X17" s="197"/>
+      <c r="Y17" s="197"/>
+      <c r="Z17" s="197"/>
+      <c r="AA17" s="197"/>
+      <c r="AB17" s="197"/>
+      <c r="AC17" s="197"/>
+      <c r="AD17" s="197"/>
+      <c r="AE17" s="198"/>
+      <c r="AF17" s="193"/>
+      <c r="AG17" s="194"/>
+      <c r="AH17" s="194"/>
+      <c r="AI17" s="195"/>
       <c r="AJ17" s="40"/>
       <c r="AK17" s="40"/>
       <c r="AL17" s="40"/>
@@ -7884,40 +7884,40 @@
     </row>
     <row r="18" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31"/>
-      <c r="B18" s="208"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="210"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="233"/>
-      <c r="K18" s="234"/>
-      <c r="L18" s="234"/>
-      <c r="M18" s="234"/>
-      <c r="N18" s="234"/>
-      <c r="O18" s="234"/>
-      <c r="P18" s="235"/>
-      <c r="Q18" s="236"/>
-      <c r="R18" s="237"/>
-      <c r="S18" s="237"/>
-      <c r="T18" s="237"/>
-      <c r="U18" s="237"/>
-      <c r="V18" s="237"/>
-      <c r="W18" s="237"/>
-      <c r="X18" s="237"/>
-      <c r="Y18" s="237"/>
-      <c r="Z18" s="237"/>
-      <c r="AA18" s="237"/>
-      <c r="AB18" s="237"/>
-      <c r="AC18" s="237"/>
-      <c r="AD18" s="237"/>
-      <c r="AE18" s="238"/>
-      <c r="AF18" s="233"/>
-      <c r="AG18" s="234"/>
-      <c r="AH18" s="234"/>
-      <c r="AI18" s="235"/>
+      <c r="B18" s="205"/>
+      <c r="C18" s="206"/>
+      <c r="D18" s="207"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="195"/>
+      <c r="Q18" s="196"/>
+      <c r="R18" s="197"/>
+      <c r="S18" s="197"/>
+      <c r="T18" s="197"/>
+      <c r="U18" s="197"/>
+      <c r="V18" s="197"/>
+      <c r="W18" s="197"/>
+      <c r="X18" s="197"/>
+      <c r="Y18" s="197"/>
+      <c r="Z18" s="197"/>
+      <c r="AA18" s="197"/>
+      <c r="AB18" s="197"/>
+      <c r="AC18" s="197"/>
+      <c r="AD18" s="197"/>
+      <c r="AE18" s="198"/>
+      <c r="AF18" s="193"/>
+      <c r="AG18" s="194"/>
+      <c r="AH18" s="194"/>
+      <c r="AI18" s="195"/>
       <c r="AJ18" s="40"/>
       <c r="AK18" s="40"/>
       <c r="AL18" s="40"/>
@@ -7926,40 +7926,40 @@
     </row>
     <row r="19" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31"/>
-      <c r="B19" s="208"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="208"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="209"/>
-      <c r="J19" s="233"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="234"/>
-      <c r="M19" s="234"/>
-      <c r="N19" s="234"/>
-      <c r="O19" s="234"/>
-      <c r="P19" s="235"/>
-      <c r="Q19" s="236"/>
-      <c r="R19" s="237"/>
-      <c r="S19" s="237"/>
-      <c r="T19" s="237"/>
-      <c r="U19" s="237"/>
-      <c r="V19" s="237"/>
-      <c r="W19" s="237"/>
-      <c r="X19" s="237"/>
-      <c r="Y19" s="237"/>
-      <c r="Z19" s="237"/>
-      <c r="AA19" s="237"/>
-      <c r="AB19" s="237"/>
-      <c r="AC19" s="237"/>
-      <c r="AD19" s="237"/>
-      <c r="AE19" s="238"/>
-      <c r="AF19" s="233"/>
-      <c r="AG19" s="234"/>
-      <c r="AH19" s="234"/>
-      <c r="AI19" s="235"/>
+      <c r="B19" s="205"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="208"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="195"/>
+      <c r="Q19" s="196"/>
+      <c r="R19" s="197"/>
+      <c r="S19" s="197"/>
+      <c r="T19" s="197"/>
+      <c r="U19" s="197"/>
+      <c r="V19" s="197"/>
+      <c r="W19" s="197"/>
+      <c r="X19" s="197"/>
+      <c r="Y19" s="197"/>
+      <c r="Z19" s="197"/>
+      <c r="AA19" s="197"/>
+      <c r="AB19" s="197"/>
+      <c r="AC19" s="197"/>
+      <c r="AD19" s="197"/>
+      <c r="AE19" s="198"/>
+      <c r="AF19" s="193"/>
+      <c r="AG19" s="194"/>
+      <c r="AH19" s="194"/>
+      <c r="AI19" s="195"/>
       <c r="AJ19" s="40"/>
       <c r="AK19" s="40"/>
       <c r="AL19" s="40"/>
@@ -7968,40 +7968,40 @@
     </row>
     <row r="20" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31"/>
-      <c r="B20" s="208"/>
-      <c r="C20" s="209"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="208"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="209"/>
-      <c r="J20" s="233"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="234"/>
-      <c r="M20" s="234"/>
-      <c r="N20" s="234"/>
-      <c r="O20" s="234"/>
-      <c r="P20" s="235"/>
-      <c r="Q20" s="236"/>
-      <c r="R20" s="237"/>
-      <c r="S20" s="237"/>
-      <c r="T20" s="237"/>
-      <c r="U20" s="237"/>
-      <c r="V20" s="237"/>
-      <c r="W20" s="237"/>
-      <c r="X20" s="237"/>
-      <c r="Y20" s="237"/>
-      <c r="Z20" s="237"/>
-      <c r="AA20" s="237"/>
-      <c r="AB20" s="237"/>
-      <c r="AC20" s="237"/>
-      <c r="AD20" s="237"/>
-      <c r="AE20" s="238"/>
-      <c r="AF20" s="233"/>
-      <c r="AG20" s="234"/>
-      <c r="AH20" s="234"/>
-      <c r="AI20" s="235"/>
+      <c r="B20" s="205"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="208"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="195"/>
+      <c r="Q20" s="196"/>
+      <c r="R20" s="197"/>
+      <c r="S20" s="197"/>
+      <c r="T20" s="197"/>
+      <c r="U20" s="197"/>
+      <c r="V20" s="197"/>
+      <c r="W20" s="197"/>
+      <c r="X20" s="197"/>
+      <c r="Y20" s="197"/>
+      <c r="Z20" s="197"/>
+      <c r="AA20" s="197"/>
+      <c r="AB20" s="197"/>
+      <c r="AC20" s="197"/>
+      <c r="AD20" s="197"/>
+      <c r="AE20" s="198"/>
+      <c r="AF20" s="193"/>
+      <c r="AG20" s="194"/>
+      <c r="AH20" s="194"/>
+      <c r="AI20" s="195"/>
       <c r="AJ20" s="40"/>
       <c r="AK20" s="40"/>
       <c r="AL20" s="40"/>
@@ -8010,40 +8010,40 @@
     </row>
     <row r="21" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31"/>
-      <c r="B21" s="208"/>
-      <c r="C21" s="209"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="212"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="209"/>
-      <c r="J21" s="233"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="234"/>
-      <c r="M21" s="234"/>
-      <c r="N21" s="234"/>
-      <c r="O21" s="234"/>
-      <c r="P21" s="235"/>
-      <c r="Q21" s="236"/>
-      <c r="R21" s="237"/>
-      <c r="S21" s="237"/>
-      <c r="T21" s="237"/>
-      <c r="U21" s="237"/>
-      <c r="V21" s="237"/>
-      <c r="W21" s="237"/>
-      <c r="X21" s="237"/>
-      <c r="Y21" s="237"/>
-      <c r="Z21" s="237"/>
-      <c r="AA21" s="237"/>
-      <c r="AB21" s="237"/>
-      <c r="AC21" s="237"/>
-      <c r="AD21" s="237"/>
-      <c r="AE21" s="238"/>
-      <c r="AF21" s="233"/>
-      <c r="AG21" s="234"/>
-      <c r="AH21" s="234"/>
-      <c r="AI21" s="235"/>
+      <c r="B21" s="205"/>
+      <c r="C21" s="206"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="208"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="193"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="195"/>
+      <c r="Q21" s="196"/>
+      <c r="R21" s="197"/>
+      <c r="S21" s="197"/>
+      <c r="T21" s="197"/>
+      <c r="U21" s="197"/>
+      <c r="V21" s="197"/>
+      <c r="W21" s="197"/>
+      <c r="X21" s="197"/>
+      <c r="Y21" s="197"/>
+      <c r="Z21" s="197"/>
+      <c r="AA21" s="197"/>
+      <c r="AB21" s="197"/>
+      <c r="AC21" s="197"/>
+      <c r="AD21" s="197"/>
+      <c r="AE21" s="198"/>
+      <c r="AF21" s="193"/>
+      <c r="AG21" s="194"/>
+      <c r="AH21" s="194"/>
+      <c r="AI21" s="195"/>
       <c r="AJ21" s="40"/>
       <c r="AK21" s="40"/>
       <c r="AL21" s="40"/>
@@ -8052,40 +8052,40 @@
     </row>
     <row r="22" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31"/>
-      <c r="B22" s="208"/>
-      <c r="C22" s="209"/>
-      <c r="D22" s="210"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="208"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="209"/>
-      <c r="J22" s="233"/>
-      <c r="K22" s="234"/>
-      <c r="L22" s="234"/>
-      <c r="M22" s="234"/>
-      <c r="N22" s="234"/>
-      <c r="O22" s="234"/>
-      <c r="P22" s="235"/>
-      <c r="Q22" s="236"/>
-      <c r="R22" s="237"/>
-      <c r="S22" s="237"/>
-      <c r="T22" s="237"/>
-      <c r="U22" s="237"/>
-      <c r="V22" s="237"/>
-      <c r="W22" s="237"/>
-      <c r="X22" s="237"/>
-      <c r="Y22" s="237"/>
-      <c r="Z22" s="237"/>
-      <c r="AA22" s="237"/>
-      <c r="AB22" s="237"/>
-      <c r="AC22" s="237"/>
-      <c r="AD22" s="237"/>
-      <c r="AE22" s="238"/>
-      <c r="AF22" s="233"/>
-      <c r="AG22" s="234"/>
-      <c r="AH22" s="234"/>
-      <c r="AI22" s="235"/>
+      <c r="B22" s="205"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="193"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="195"/>
+      <c r="Q22" s="196"/>
+      <c r="R22" s="197"/>
+      <c r="S22" s="197"/>
+      <c r="T22" s="197"/>
+      <c r="U22" s="197"/>
+      <c r="V22" s="197"/>
+      <c r="W22" s="197"/>
+      <c r="X22" s="197"/>
+      <c r="Y22" s="197"/>
+      <c r="Z22" s="197"/>
+      <c r="AA22" s="197"/>
+      <c r="AB22" s="197"/>
+      <c r="AC22" s="197"/>
+      <c r="AD22" s="197"/>
+      <c r="AE22" s="198"/>
+      <c r="AF22" s="193"/>
+      <c r="AG22" s="194"/>
+      <c r="AH22" s="194"/>
+      <c r="AI22" s="195"/>
       <c r="AJ22" s="40"/>
       <c r="AK22" s="40"/>
       <c r="AL22" s="40"/>
@@ -8094,40 +8094,40 @@
     </row>
     <row r="23" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="31"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="209"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="212"/>
-      <c r="G23" s="208"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="209"/>
-      <c r="J23" s="233"/>
-      <c r="K23" s="234"/>
-      <c r="L23" s="234"/>
-      <c r="M23" s="234"/>
-      <c r="N23" s="234"/>
-      <c r="O23" s="234"/>
-      <c r="P23" s="235"/>
-      <c r="Q23" s="236"/>
-      <c r="R23" s="237"/>
-      <c r="S23" s="237"/>
-      <c r="T23" s="237"/>
-      <c r="U23" s="237"/>
-      <c r="V23" s="237"/>
-      <c r="W23" s="237"/>
-      <c r="X23" s="237"/>
-      <c r="Y23" s="237"/>
-      <c r="Z23" s="237"/>
-      <c r="AA23" s="237"/>
-      <c r="AB23" s="237"/>
-      <c r="AC23" s="237"/>
-      <c r="AD23" s="237"/>
-      <c r="AE23" s="238"/>
-      <c r="AF23" s="233"/>
-      <c r="AG23" s="234"/>
-      <c r="AH23" s="234"/>
-      <c r="AI23" s="235"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="206"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="209"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194"/>
+      <c r="O23" s="194"/>
+      <c r="P23" s="195"/>
+      <c r="Q23" s="196"/>
+      <c r="R23" s="197"/>
+      <c r="S23" s="197"/>
+      <c r="T23" s="197"/>
+      <c r="U23" s="197"/>
+      <c r="V23" s="197"/>
+      <c r="W23" s="197"/>
+      <c r="X23" s="197"/>
+      <c r="Y23" s="197"/>
+      <c r="Z23" s="197"/>
+      <c r="AA23" s="197"/>
+      <c r="AB23" s="197"/>
+      <c r="AC23" s="197"/>
+      <c r="AD23" s="197"/>
+      <c r="AE23" s="198"/>
+      <c r="AF23" s="193"/>
+      <c r="AG23" s="194"/>
+      <c r="AH23" s="194"/>
+      <c r="AI23" s="195"/>
       <c r="AJ23" s="40"/>
       <c r="AK23" s="40"/>
       <c r="AL23" s="40"/>
@@ -8136,40 +8136,40 @@
     </row>
     <row r="24" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31"/>
-      <c r="B24" s="208"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="210"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="212"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="233"/>
-      <c r="K24" s="234"/>
-      <c r="L24" s="234"/>
-      <c r="M24" s="234"/>
-      <c r="N24" s="234"/>
-      <c r="O24" s="234"/>
-      <c r="P24" s="235"/>
-      <c r="Q24" s="236"/>
-      <c r="R24" s="237"/>
-      <c r="S24" s="237"/>
-      <c r="T24" s="237"/>
-      <c r="U24" s="237"/>
-      <c r="V24" s="237"/>
-      <c r="W24" s="237"/>
-      <c r="X24" s="237"/>
-      <c r="Y24" s="237"/>
-      <c r="Z24" s="237"/>
-      <c r="AA24" s="237"/>
-      <c r="AB24" s="237"/>
-      <c r="AC24" s="237"/>
-      <c r="AD24" s="237"/>
-      <c r="AE24" s="238"/>
-      <c r="AF24" s="233"/>
-      <c r="AG24" s="234"/>
-      <c r="AH24" s="234"/>
-      <c r="AI24" s="235"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="205"/>
+      <c r="H24" s="210"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="194"/>
+      <c r="P24" s="195"/>
+      <c r="Q24" s="196"/>
+      <c r="R24" s="197"/>
+      <c r="S24" s="197"/>
+      <c r="T24" s="197"/>
+      <c r="U24" s="197"/>
+      <c r="V24" s="197"/>
+      <c r="W24" s="197"/>
+      <c r="X24" s="197"/>
+      <c r="Y24" s="197"/>
+      <c r="Z24" s="197"/>
+      <c r="AA24" s="197"/>
+      <c r="AB24" s="197"/>
+      <c r="AC24" s="197"/>
+      <c r="AD24" s="197"/>
+      <c r="AE24" s="198"/>
+      <c r="AF24" s="193"/>
+      <c r="AG24" s="194"/>
+      <c r="AH24" s="194"/>
+      <c r="AI24" s="195"/>
       <c r="AJ24" s="40"/>
       <c r="AK24" s="40"/>
       <c r="AL24" s="40"/>
@@ -8178,40 +8178,40 @@
     </row>
     <row r="25" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="31"/>
-      <c r="B25" s="208"/>
-      <c r="C25" s="209"/>
-      <c r="D25" s="210"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="212"/>
-      <c r="G25" s="208"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="209"/>
-      <c r="J25" s="233"/>
-      <c r="K25" s="234"/>
-      <c r="L25" s="234"/>
-      <c r="M25" s="234"/>
-      <c r="N25" s="234"/>
-      <c r="O25" s="234"/>
-      <c r="P25" s="235"/>
-      <c r="Q25" s="236"/>
-      <c r="R25" s="237"/>
-      <c r="S25" s="237"/>
-      <c r="T25" s="237"/>
-      <c r="U25" s="237"/>
-      <c r="V25" s="237"/>
-      <c r="W25" s="237"/>
-      <c r="X25" s="237"/>
-      <c r="Y25" s="237"/>
-      <c r="Z25" s="237"/>
-      <c r="AA25" s="237"/>
-      <c r="AB25" s="237"/>
-      <c r="AC25" s="237"/>
-      <c r="AD25" s="237"/>
-      <c r="AE25" s="238"/>
-      <c r="AF25" s="233"/>
-      <c r="AG25" s="234"/>
-      <c r="AH25" s="234"/>
-      <c r="AI25" s="235"/>
+      <c r="B25" s="205"/>
+      <c r="C25" s="206"/>
+      <c r="D25" s="207"/>
+      <c r="E25" s="208"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="210"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="194"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="194"/>
+      <c r="O25" s="194"/>
+      <c r="P25" s="195"/>
+      <c r="Q25" s="196"/>
+      <c r="R25" s="197"/>
+      <c r="S25" s="197"/>
+      <c r="T25" s="197"/>
+      <c r="U25" s="197"/>
+      <c r="V25" s="197"/>
+      <c r="W25" s="197"/>
+      <c r="X25" s="197"/>
+      <c r="Y25" s="197"/>
+      <c r="Z25" s="197"/>
+      <c r="AA25" s="197"/>
+      <c r="AB25" s="197"/>
+      <c r="AC25" s="197"/>
+      <c r="AD25" s="197"/>
+      <c r="AE25" s="198"/>
+      <c r="AF25" s="193"/>
+      <c r="AG25" s="194"/>
+      <c r="AH25" s="194"/>
+      <c r="AI25" s="195"/>
       <c r="AJ25" s="40"/>
       <c r="AK25" s="40"/>
       <c r="AL25" s="40"/>
@@ -8220,40 +8220,40 @@
     </row>
     <row r="26" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="209"/>
-      <c r="D26" s="210"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="209"/>
-      <c r="J26" s="233"/>
-      <c r="K26" s="234"/>
-      <c r="L26" s="234"/>
-      <c r="M26" s="234"/>
-      <c r="N26" s="234"/>
-      <c r="O26" s="234"/>
-      <c r="P26" s="235"/>
-      <c r="Q26" s="236"/>
-      <c r="R26" s="237"/>
-      <c r="S26" s="237"/>
-      <c r="T26" s="237"/>
-      <c r="U26" s="237"/>
-      <c r="V26" s="237"/>
-      <c r="W26" s="237"/>
-      <c r="X26" s="237"/>
-      <c r="Y26" s="237"/>
-      <c r="Z26" s="237"/>
-      <c r="AA26" s="237"/>
-      <c r="AB26" s="237"/>
-      <c r="AC26" s="237"/>
-      <c r="AD26" s="237"/>
-      <c r="AE26" s="238"/>
-      <c r="AF26" s="233"/>
-      <c r="AG26" s="234"/>
-      <c r="AH26" s="234"/>
-      <c r="AI26" s="235"/>
+      <c r="B26" s="205"/>
+      <c r="C26" s="206"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="208"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="210"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="193"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="194"/>
+      <c r="O26" s="194"/>
+      <c r="P26" s="195"/>
+      <c r="Q26" s="196"/>
+      <c r="R26" s="197"/>
+      <c r="S26" s="197"/>
+      <c r="T26" s="197"/>
+      <c r="U26" s="197"/>
+      <c r="V26" s="197"/>
+      <c r="W26" s="197"/>
+      <c r="X26" s="197"/>
+      <c r="Y26" s="197"/>
+      <c r="Z26" s="197"/>
+      <c r="AA26" s="197"/>
+      <c r="AB26" s="197"/>
+      <c r="AC26" s="197"/>
+      <c r="AD26" s="197"/>
+      <c r="AE26" s="198"/>
+      <c r="AF26" s="193"/>
+      <c r="AG26" s="194"/>
+      <c r="AH26" s="194"/>
+      <c r="AI26" s="195"/>
       <c r="AJ26" s="40"/>
       <c r="AK26" s="40"/>
       <c r="AL26" s="40"/>
@@ -8262,40 +8262,40 @@
     </row>
     <row r="27" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="31"/>
-      <c r="B27" s="208"/>
-      <c r="C27" s="209"/>
-      <c r="D27" s="210"/>
-      <c r="E27" s="211"/>
-      <c r="F27" s="212"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="209"/>
-      <c r="J27" s="233"/>
-      <c r="K27" s="234"/>
-      <c r="L27" s="234"/>
-      <c r="M27" s="234"/>
-      <c r="N27" s="234"/>
-      <c r="O27" s="234"/>
-      <c r="P27" s="235"/>
-      <c r="Q27" s="236"/>
-      <c r="R27" s="237"/>
-      <c r="S27" s="237"/>
-      <c r="T27" s="237"/>
-      <c r="U27" s="237"/>
-      <c r="V27" s="237"/>
-      <c r="W27" s="237"/>
-      <c r="X27" s="237"/>
-      <c r="Y27" s="237"/>
-      <c r="Z27" s="237"/>
-      <c r="AA27" s="237"/>
-      <c r="AB27" s="237"/>
-      <c r="AC27" s="237"/>
-      <c r="AD27" s="237"/>
-      <c r="AE27" s="238"/>
-      <c r="AF27" s="233"/>
-      <c r="AG27" s="234"/>
-      <c r="AH27" s="234"/>
-      <c r="AI27" s="235"/>
+      <c r="B27" s="205"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="208"/>
+      <c r="F27" s="209"/>
+      <c r="G27" s="205"/>
+      <c r="H27" s="210"/>
+      <c r="I27" s="206"/>
+      <c r="J27" s="193"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="194"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="194"/>
+      <c r="O27" s="194"/>
+      <c r="P27" s="195"/>
+      <c r="Q27" s="196"/>
+      <c r="R27" s="197"/>
+      <c r="S27" s="197"/>
+      <c r="T27" s="197"/>
+      <c r="U27" s="197"/>
+      <c r="V27" s="197"/>
+      <c r="W27" s="197"/>
+      <c r="X27" s="197"/>
+      <c r="Y27" s="197"/>
+      <c r="Z27" s="197"/>
+      <c r="AA27" s="197"/>
+      <c r="AB27" s="197"/>
+      <c r="AC27" s="197"/>
+      <c r="AD27" s="197"/>
+      <c r="AE27" s="198"/>
+      <c r="AF27" s="193"/>
+      <c r="AG27" s="194"/>
+      <c r="AH27" s="194"/>
+      <c r="AI27" s="195"/>
       <c r="AJ27" s="40"/>
       <c r="AK27" s="40"/>
       <c r="AL27" s="40"/>
@@ -8304,40 +8304,40 @@
     </row>
     <row r="28" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="31"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="211"/>
-      <c r="F28" s="212"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="233"/>
-      <c r="K28" s="234"/>
-      <c r="L28" s="234"/>
-      <c r="M28" s="234"/>
-      <c r="N28" s="234"/>
-      <c r="O28" s="234"/>
-      <c r="P28" s="235"/>
-      <c r="Q28" s="236"/>
-      <c r="R28" s="237"/>
-      <c r="S28" s="237"/>
-      <c r="T28" s="237"/>
-      <c r="U28" s="237"/>
-      <c r="V28" s="237"/>
-      <c r="W28" s="237"/>
-      <c r="X28" s="237"/>
-      <c r="Y28" s="237"/>
-      <c r="Z28" s="237"/>
-      <c r="AA28" s="237"/>
-      <c r="AB28" s="237"/>
-      <c r="AC28" s="237"/>
-      <c r="AD28" s="237"/>
-      <c r="AE28" s="238"/>
-      <c r="AF28" s="233"/>
-      <c r="AG28" s="234"/>
-      <c r="AH28" s="234"/>
-      <c r="AI28" s="235"/>
+      <c r="B28" s="205"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="208"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="210"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="193"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="194"/>
+      <c r="O28" s="194"/>
+      <c r="P28" s="195"/>
+      <c r="Q28" s="196"/>
+      <c r="R28" s="197"/>
+      <c r="S28" s="197"/>
+      <c r="T28" s="197"/>
+      <c r="U28" s="197"/>
+      <c r="V28" s="197"/>
+      <c r="W28" s="197"/>
+      <c r="X28" s="197"/>
+      <c r="Y28" s="197"/>
+      <c r="Z28" s="197"/>
+      <c r="AA28" s="197"/>
+      <c r="AB28" s="197"/>
+      <c r="AC28" s="197"/>
+      <c r="AD28" s="197"/>
+      <c r="AE28" s="198"/>
+      <c r="AF28" s="193"/>
+      <c r="AG28" s="194"/>
+      <c r="AH28" s="194"/>
+      <c r="AI28" s="195"/>
       <c r="AJ28" s="40"/>
       <c r="AK28" s="40"/>
       <c r="AL28" s="40"/>
@@ -8346,40 +8346,40 @@
     </row>
     <row r="29" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31"/>
-      <c r="B29" s="208"/>
-      <c r="C29" s="209"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="211"/>
-      <c r="F29" s="212"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="209"/>
-      <c r="J29" s="233"/>
-      <c r="K29" s="234"/>
-      <c r="L29" s="234"/>
-      <c r="M29" s="234"/>
-      <c r="N29" s="234"/>
-      <c r="O29" s="234"/>
-      <c r="P29" s="235"/>
-      <c r="Q29" s="236"/>
-      <c r="R29" s="237"/>
-      <c r="S29" s="237"/>
-      <c r="T29" s="237"/>
-      <c r="U29" s="237"/>
-      <c r="V29" s="237"/>
-      <c r="W29" s="237"/>
-      <c r="X29" s="237"/>
-      <c r="Y29" s="237"/>
-      <c r="Z29" s="237"/>
-      <c r="AA29" s="237"/>
-      <c r="AB29" s="237"/>
-      <c r="AC29" s="237"/>
-      <c r="AD29" s="237"/>
-      <c r="AE29" s="238"/>
-      <c r="AF29" s="233"/>
-      <c r="AG29" s="234"/>
-      <c r="AH29" s="234"/>
-      <c r="AI29" s="235"/>
+      <c r="B29" s="205"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="208"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="210"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="193"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="194"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="194"/>
+      <c r="O29" s="194"/>
+      <c r="P29" s="195"/>
+      <c r="Q29" s="196"/>
+      <c r="R29" s="197"/>
+      <c r="S29" s="197"/>
+      <c r="T29" s="197"/>
+      <c r="U29" s="197"/>
+      <c r="V29" s="197"/>
+      <c r="W29" s="197"/>
+      <c r="X29" s="197"/>
+      <c r="Y29" s="197"/>
+      <c r="Z29" s="197"/>
+      <c r="AA29" s="197"/>
+      <c r="AB29" s="197"/>
+      <c r="AC29" s="197"/>
+      <c r="AD29" s="197"/>
+      <c r="AE29" s="198"/>
+      <c r="AF29" s="193"/>
+      <c r="AG29" s="194"/>
+      <c r="AH29" s="194"/>
+      <c r="AI29" s="195"/>
       <c r="AJ29" s="40"/>
       <c r="AK29" s="40"/>
       <c r="AL29" s="40"/>
@@ -8388,40 +8388,40 @@
     </row>
     <row r="30" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="31"/>
-      <c r="B30" s="208"/>
-      <c r="C30" s="209"/>
-      <c r="D30" s="210"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="212"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="209"/>
-      <c r="J30" s="233"/>
-      <c r="K30" s="234"/>
-      <c r="L30" s="234"/>
-      <c r="M30" s="234"/>
-      <c r="N30" s="234"/>
-      <c r="O30" s="234"/>
-      <c r="P30" s="235"/>
-      <c r="Q30" s="236"/>
-      <c r="R30" s="237"/>
-      <c r="S30" s="237"/>
-      <c r="T30" s="237"/>
-      <c r="U30" s="237"/>
-      <c r="V30" s="237"/>
-      <c r="W30" s="237"/>
-      <c r="X30" s="237"/>
-      <c r="Y30" s="237"/>
-      <c r="Z30" s="237"/>
-      <c r="AA30" s="237"/>
-      <c r="AB30" s="237"/>
-      <c r="AC30" s="237"/>
-      <c r="AD30" s="237"/>
-      <c r="AE30" s="238"/>
-      <c r="AF30" s="233"/>
-      <c r="AG30" s="234"/>
-      <c r="AH30" s="234"/>
-      <c r="AI30" s="235"/>
+      <c r="B30" s="205"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="208"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="210"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="194"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="194"/>
+      <c r="O30" s="194"/>
+      <c r="P30" s="195"/>
+      <c r="Q30" s="196"/>
+      <c r="R30" s="197"/>
+      <c r="S30" s="197"/>
+      <c r="T30" s="197"/>
+      <c r="U30" s="197"/>
+      <c r="V30" s="197"/>
+      <c r="W30" s="197"/>
+      <c r="X30" s="197"/>
+      <c r="Y30" s="197"/>
+      <c r="Z30" s="197"/>
+      <c r="AA30" s="197"/>
+      <c r="AB30" s="197"/>
+      <c r="AC30" s="197"/>
+      <c r="AD30" s="197"/>
+      <c r="AE30" s="198"/>
+      <c r="AF30" s="193"/>
+      <c r="AG30" s="194"/>
+      <c r="AH30" s="194"/>
+      <c r="AI30" s="195"/>
       <c r="AJ30" s="40"/>
       <c r="AK30" s="40"/>
       <c r="AL30" s="40"/>
@@ -8430,40 +8430,40 @@
     </row>
     <row r="31" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="31"/>
-      <c r="B31" s="208"/>
-      <c r="C31" s="209"/>
-      <c r="D31" s="210"/>
-      <c r="E31" s="211"/>
-      <c r="F31" s="212"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="209"/>
-      <c r="J31" s="233"/>
-      <c r="K31" s="234"/>
-      <c r="L31" s="234"/>
-      <c r="M31" s="234"/>
-      <c r="N31" s="234"/>
-      <c r="O31" s="234"/>
-      <c r="P31" s="235"/>
-      <c r="Q31" s="236"/>
-      <c r="R31" s="237"/>
-      <c r="S31" s="237"/>
-      <c r="T31" s="237"/>
-      <c r="U31" s="237"/>
-      <c r="V31" s="237"/>
-      <c r="W31" s="237"/>
-      <c r="X31" s="237"/>
-      <c r="Y31" s="237"/>
-      <c r="Z31" s="237"/>
-      <c r="AA31" s="237"/>
-      <c r="AB31" s="237"/>
-      <c r="AC31" s="237"/>
-      <c r="AD31" s="237"/>
-      <c r="AE31" s="238"/>
-      <c r="AF31" s="233"/>
-      <c r="AG31" s="234"/>
-      <c r="AH31" s="234"/>
-      <c r="AI31" s="235"/>
+      <c r="B31" s="205"/>
+      <c r="C31" s="206"/>
+      <c r="D31" s="207"/>
+      <c r="E31" s="208"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="206"/>
+      <c r="J31" s="193"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="194"/>
+      <c r="M31" s="194"/>
+      <c r="N31" s="194"/>
+      <c r="O31" s="194"/>
+      <c r="P31" s="195"/>
+      <c r="Q31" s="196"/>
+      <c r="R31" s="197"/>
+      <c r="S31" s="197"/>
+      <c r="T31" s="197"/>
+      <c r="U31" s="197"/>
+      <c r="V31" s="197"/>
+      <c r="W31" s="197"/>
+      <c r="X31" s="197"/>
+      <c r="Y31" s="197"/>
+      <c r="Z31" s="197"/>
+      <c r="AA31" s="197"/>
+      <c r="AB31" s="197"/>
+      <c r="AC31" s="197"/>
+      <c r="AD31" s="197"/>
+      <c r="AE31" s="198"/>
+      <c r="AF31" s="193"/>
+      <c r="AG31" s="194"/>
+      <c r="AH31" s="194"/>
+      <c r="AI31" s="195"/>
       <c r="AJ31" s="40"/>
       <c r="AK31" s="40"/>
       <c r="AL31" s="40"/>
@@ -8472,40 +8472,40 @@
     </row>
     <row r="32" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="31"/>
-      <c r="B32" s="208"/>
-      <c r="C32" s="209"/>
-      <c r="D32" s="210"/>
-      <c r="E32" s="211"/>
-      <c r="F32" s="212"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="209"/>
-      <c r="J32" s="233"/>
-      <c r="K32" s="234"/>
-      <c r="L32" s="234"/>
-      <c r="M32" s="234"/>
-      <c r="N32" s="234"/>
-      <c r="O32" s="234"/>
-      <c r="P32" s="235"/>
-      <c r="Q32" s="236"/>
-      <c r="R32" s="237"/>
-      <c r="S32" s="237"/>
-      <c r="T32" s="237"/>
-      <c r="U32" s="237"/>
-      <c r="V32" s="237"/>
-      <c r="W32" s="237"/>
-      <c r="X32" s="237"/>
-      <c r="Y32" s="237"/>
-      <c r="Z32" s="237"/>
-      <c r="AA32" s="237"/>
-      <c r="AB32" s="237"/>
-      <c r="AC32" s="237"/>
-      <c r="AD32" s="237"/>
-      <c r="AE32" s="238"/>
-      <c r="AF32" s="233"/>
-      <c r="AG32" s="234"/>
-      <c r="AH32" s="234"/>
-      <c r="AI32" s="235"/>
+      <c r="B32" s="205"/>
+      <c r="C32" s="206"/>
+      <c r="D32" s="207"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="210"/>
+      <c r="I32" s="206"/>
+      <c r="J32" s="193"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="194"/>
+      <c r="M32" s="194"/>
+      <c r="N32" s="194"/>
+      <c r="O32" s="194"/>
+      <c r="P32" s="195"/>
+      <c r="Q32" s="196"/>
+      <c r="R32" s="197"/>
+      <c r="S32" s="197"/>
+      <c r="T32" s="197"/>
+      <c r="U32" s="197"/>
+      <c r="V32" s="197"/>
+      <c r="W32" s="197"/>
+      <c r="X32" s="197"/>
+      <c r="Y32" s="197"/>
+      <c r="Z32" s="197"/>
+      <c r="AA32" s="197"/>
+      <c r="AB32" s="197"/>
+      <c r="AC32" s="197"/>
+      <c r="AD32" s="197"/>
+      <c r="AE32" s="198"/>
+      <c r="AF32" s="193"/>
+      <c r="AG32" s="194"/>
+      <c r="AH32" s="194"/>
+      <c r="AI32" s="195"/>
       <c r="AJ32" s="40"/>
       <c r="AK32" s="40"/>
       <c r="AL32" s="40"/>
@@ -8514,40 +8514,40 @@
     </row>
     <row r="33" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31"/>
-      <c r="B33" s="208"/>
-      <c r="C33" s="209"/>
-      <c r="D33" s="210"/>
-      <c r="E33" s="211"/>
-      <c r="F33" s="212"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="233"/>
-      <c r="K33" s="234"/>
-      <c r="L33" s="234"/>
-      <c r="M33" s="234"/>
-      <c r="N33" s="234"/>
-      <c r="O33" s="234"/>
-      <c r="P33" s="235"/>
-      <c r="Q33" s="236"/>
-      <c r="R33" s="237"/>
-      <c r="S33" s="237"/>
-      <c r="T33" s="237"/>
-      <c r="U33" s="237"/>
-      <c r="V33" s="237"/>
-      <c r="W33" s="237"/>
-      <c r="X33" s="237"/>
-      <c r="Y33" s="237"/>
-      <c r="Z33" s="237"/>
-      <c r="AA33" s="237"/>
-      <c r="AB33" s="237"/>
-      <c r="AC33" s="237"/>
-      <c r="AD33" s="237"/>
-      <c r="AE33" s="238"/>
-      <c r="AF33" s="233"/>
-      <c r="AG33" s="234"/>
-      <c r="AH33" s="234"/>
-      <c r="AI33" s="235"/>
+      <c r="B33" s="205"/>
+      <c r="C33" s="206"/>
+      <c r="D33" s="207"/>
+      <c r="E33" s="208"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="205"/>
+      <c r="H33" s="210"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="193"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="194"/>
+      <c r="O33" s="194"/>
+      <c r="P33" s="195"/>
+      <c r="Q33" s="196"/>
+      <c r="R33" s="197"/>
+      <c r="S33" s="197"/>
+      <c r="T33" s="197"/>
+      <c r="U33" s="197"/>
+      <c r="V33" s="197"/>
+      <c r="W33" s="197"/>
+      <c r="X33" s="197"/>
+      <c r="Y33" s="197"/>
+      <c r="Z33" s="197"/>
+      <c r="AA33" s="197"/>
+      <c r="AB33" s="197"/>
+      <c r="AC33" s="197"/>
+      <c r="AD33" s="197"/>
+      <c r="AE33" s="198"/>
+      <c r="AF33" s="193"/>
+      <c r="AG33" s="194"/>
+      <c r="AH33" s="194"/>
+      <c r="AI33" s="195"/>
       <c r="AJ33" s="40"/>
       <c r="AK33" s="40"/>
       <c r="AL33" s="40"/>
@@ -8934,161 +8934,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -9113,6 +8958,161 @@
     <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AF7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <printOptions horizontalCentered="1"/>
@@ -9269,158 +9269,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="247"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="252" t="str">
+      <c r="P1" s="218"/>
+      <c r="Q1" s="218"/>
+      <c r="R1" s="219"/>
+      <c r="S1" s="248" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="253"/>
-      <c r="U1" s="253"/>
-      <c r="V1" s="253"/>
-      <c r="W1" s="253"/>
-      <c r="X1" s="253"/>
-      <c r="Y1" s="253"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="250"/>
+      <c r="AA1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="248">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="258">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="249"/>
-      <c r="AI1" s="250"/>
+      <c r="AH1" s="259"/>
+      <c r="AI1" s="260"/>
     </row>
     <row r="2" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
-      <c r="X2" s="256"/>
-      <c r="Y2" s="256"/>
-      <c r="Z2" s="257"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="222"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="252"/>
+      <c r="X2" s="252"/>
+      <c r="Y2" s="252"/>
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="248" t="str">
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="249"/>
-      <c r="AI2" s="250"/>
+      <c r="AH2" s="259"/>
+      <c r="AI2" s="260"/>
     </row>
     <row r="3" spans="1:35" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="258"/>
-      <c r="T3" s="259"/>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
-      <c r="Y3" s="259"/>
-      <c r="Z3" s="260"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="223"/>
+      <c r="P3" s="224"/>
+      <c r="Q3" s="224"/>
+      <c r="R3" s="225"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="255"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="255"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="216"/>
+      <c r="AC3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="248" t="str">
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="249"/>
-      <c r="AI3" s="250"/>
+      <c r="AH3" s="259"/>
+      <c r="AI3" s="260"/>
     </row>
     <row r="4" spans="1:35" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="48"/>
@@ -10928,6 +10928,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -10937,14 +10945,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -10971,158 +10971,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="286" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="247"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="252" t="str">
+      <c r="P1" s="218"/>
+      <c r="Q1" s="218"/>
+      <c r="R1" s="219"/>
+      <c r="S1" s="248" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="253"/>
-      <c r="U1" s="253"/>
-      <c r="V1" s="253"/>
-      <c r="W1" s="253"/>
-      <c r="X1" s="253"/>
-      <c r="Y1" s="253"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="250"/>
+      <c r="AA1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="248">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="258">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="249"/>
-      <c r="AI1" s="250"/>
+      <c r="AH1" s="259"/>
+      <c r="AI1" s="260"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
-      <c r="X2" s="256"/>
-      <c r="Y2" s="256"/>
-      <c r="Z2" s="257"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="222"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="252"/>
+      <c r="X2" s="252"/>
+      <c r="Y2" s="252"/>
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="248" t="str">
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="249"/>
-      <c r="AI2" s="250"/>
+      <c r="AH2" s="259"/>
+      <c r="AI2" s="260"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="258"/>
-      <c r="T3" s="259"/>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
-      <c r="Y3" s="259"/>
-      <c r="Z3" s="260"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="223"/>
+      <c r="P3" s="224"/>
+      <c r="Q3" s="224"/>
+      <c r="R3" s="225"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="255"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="255"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="216"/>
+      <c r="AC3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="248" t="str">
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="249"/>
-      <c r="AI3" s="250"/>
+      <c r="AH3" s="259"/>
+      <c r="AI3" s="260"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11138,86 +11138,86 @@
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="295" t="s">
+      <c r="D8" s="261" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="296"/>
-      <c r="F8" s="296"/>
-      <c r="G8" s="297"/>
-      <c r="H8" s="300" t="s">
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="266" t="s">
         <v>151</v>
       </c>
-      <c r="I8" s="234"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="301"/>
-      <c r="N8" s="301"/>
-      <c r="O8" s="301"/>
-      <c r="P8" s="301"/>
-      <c r="Q8" s="301"/>
-      <c r="R8" s="301"/>
-      <c r="S8" s="301"/>
-      <c r="T8" s="301"/>
-      <c r="U8" s="301"/>
-      <c r="V8" s="301"/>
-      <c r="W8" s="301"/>
-      <c r="X8" s="301"/>
-      <c r="Y8" s="301"/>
-      <c r="Z8" s="301"/>
-      <c r="AA8" s="301"/>
-      <c r="AB8" s="301"/>
-      <c r="AC8" s="301"/>
-      <c r="AD8" s="301"/>
-      <c r="AE8" s="301"/>
-      <c r="AF8" s="301"/>
-      <c r="AG8" s="301"/>
-      <c r="AH8" s="302"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="267"/>
+      <c r="N8" s="267"/>
+      <c r="O8" s="267"/>
+      <c r="P8" s="267"/>
+      <c r="Q8" s="267"/>
+      <c r="R8" s="267"/>
+      <c r="S8" s="267"/>
+      <c r="T8" s="267"/>
+      <c r="U8" s="267"/>
+      <c r="V8" s="267"/>
+      <c r="W8" s="267"/>
+      <c r="X8" s="267"/>
+      <c r="Y8" s="267"/>
+      <c r="Z8" s="267"/>
+      <c r="AA8" s="267"/>
+      <c r="AB8" s="267"/>
+      <c r="AC8" s="267"/>
+      <c r="AD8" s="267"/>
+      <c r="AE8" s="267"/>
+      <c r="AF8" s="267"/>
+      <c r="AG8" s="267"/>
+      <c r="AH8" s="268"/>
     </row>
     <row r="9" spans="1:35" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="314" t="s">
+      <c r="D9" s="280" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="316"/>
-      <c r="H9" s="300" t="s">
+      <c r="E9" s="281"/>
+      <c r="F9" s="281"/>
+      <c r="G9" s="282"/>
+      <c r="H9" s="266" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="301"/>
-      <c r="J9" s="301"/>
-      <c r="K9" s="301"/>
-      <c r="L9" s="301"/>
-      <c r="M9" s="301"/>
-      <c r="N9" s="301"/>
-      <c r="O9" s="301"/>
-      <c r="P9" s="301"/>
-      <c r="Q9" s="301"/>
-      <c r="R9" s="301"/>
-      <c r="S9" s="301"/>
-      <c r="T9" s="301"/>
-      <c r="U9" s="301"/>
-      <c r="V9" s="301"/>
-      <c r="W9" s="301"/>
-      <c r="X9" s="301"/>
-      <c r="Y9" s="301"/>
-      <c r="Z9" s="301"/>
-      <c r="AA9" s="301"/>
-      <c r="AB9" s="301"/>
-      <c r="AC9" s="301"/>
-      <c r="AD9" s="301"/>
-      <c r="AE9" s="301"/>
-      <c r="AF9" s="301"/>
-      <c r="AG9" s="301"/>
-      <c r="AH9" s="302"/>
+      <c r="I9" s="267"/>
+      <c r="J9" s="267"/>
+      <c r="K9" s="267"/>
+      <c r="L9" s="267"/>
+      <c r="M9" s="267"/>
+      <c r="N9" s="267"/>
+      <c r="O9" s="267"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="267"/>
+      <c r="R9" s="267"/>
+      <c r="S9" s="267"/>
+      <c r="T9" s="267"/>
+      <c r="U9" s="267"/>
+      <c r="V9" s="267"/>
+      <c r="W9" s="267"/>
+      <c r="X9" s="267"/>
+      <c r="Y9" s="267"/>
+      <c r="Z9" s="267"/>
+      <c r="AA9" s="267"/>
+      <c r="AB9" s="267"/>
+      <c r="AC9" s="267"/>
+      <c r="AD9" s="267"/>
+      <c r="AE9" s="267"/>
+      <c r="AF9" s="267"/>
+      <c r="AG9" s="267"/>
+      <c r="AH9" s="268"/>
     </row>
     <row r="10" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="303" t="s">
+      <c r="D10" s="269" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="304"/>
-      <c r="F10" s="304"/>
-      <c r="G10" s="305"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="270"/>
+      <c r="G10" s="271"/>
       <c r="H10" s="108" t="s">
         <v>103</v>
       </c>
@@ -11249,10 +11249,10 @@
       <c r="AH10" s="96"/>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="317"/>
-      <c r="E11" s="318"/>
-      <c r="F11" s="318"/>
-      <c r="G11" s="319"/>
+      <c r="D11" s="283"/>
+      <c r="E11" s="284"/>
+      <c r="F11" s="284"/>
+      <c r="G11" s="285"/>
       <c r="H11" s="97"/>
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
@@ -11282,12 +11282,12 @@
       <c r="AH11" s="99"/>
     </row>
     <row r="12" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="303" t="s">
+      <c r="D12" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="304"/>
-      <c r="F12" s="304"/>
-      <c r="G12" s="305"/>
+      <c r="E12" s="270"/>
+      <c r="F12" s="270"/>
+      <c r="G12" s="271"/>
       <c r="H12" s="108" t="s">
         <v>105</v>
       </c>
@@ -11319,10 +11319,10 @@
       <c r="AH12" s="96"/>
     </row>
     <row r="13" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="317"/>
-      <c r="E13" s="318"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="319"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="284"/>
+      <c r="F13" s="284"/>
+      <c r="G13" s="285"/>
       <c r="H13" s="109"/>
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
@@ -11352,10 +11352,10 @@
       <c r="AH13" s="99"/>
     </row>
     <row r="14" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="306"/>
-      <c r="E14" s="307"/>
-      <c r="F14" s="307"/>
-      <c r="G14" s="308"/>
+      <c r="D14" s="272"/>
+      <c r="E14" s="273"/>
+      <c r="F14" s="273"/>
+      <c r="G14" s="274"/>
       <c r="H14" s="100"/>
       <c r="I14" s="101"/>
       <c r="J14" s="101"/>
@@ -11385,12 +11385,12 @@
       <c r="AH14" s="102"/>
     </row>
     <row r="15" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="303" t="s">
+      <c r="D15" s="269" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="304"/>
-      <c r="F15" s="304"/>
-      <c r="G15" s="305"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="270"/>
+      <c r="G15" s="271"/>
       <c r="H15" s="108" t="s">
         <v>104</v>
       </c>
@@ -11422,10 +11422,10 @@
       <c r="AH15" s="96"/>
     </row>
     <row r="16" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="306"/>
-      <c r="E16" s="307"/>
-      <c r="F16" s="307"/>
-      <c r="G16" s="308"/>
+      <c r="D16" s="272"/>
+      <c r="E16" s="273"/>
+      <c r="F16" s="273"/>
+      <c r="G16" s="274"/>
       <c r="H16" s="100"/>
       <c r="I16" s="101"/>
       <c r="J16" s="101"/>
@@ -11493,208 +11493,219 @@
       </c>
     </row>
     <row r="20" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D20" s="298" t="s">
+      <c r="D20" s="264" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="261" t="s">
+      <c r="E20" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="262"/>
-      <c r="G20" s="262"/>
-      <c r="H20" s="263"/>
-      <c r="I20" s="303" t="s">
+      <c r="F20" s="288"/>
+      <c r="G20" s="288"/>
+      <c r="H20" s="289"/>
+      <c r="I20" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="304"/>
-      <c r="K20" s="304"/>
-      <c r="L20" s="304"/>
-      <c r="M20" s="304"/>
-      <c r="N20" s="304"/>
-      <c r="O20" s="304"/>
-      <c r="P20" s="305"/>
-      <c r="Q20" s="303" t="s">
+      <c r="J20" s="270"/>
+      <c r="K20" s="270"/>
+      <c r="L20" s="270"/>
+      <c r="M20" s="270"/>
+      <c r="N20" s="270"/>
+      <c r="O20" s="270"/>
+      <c r="P20" s="271"/>
+      <c r="Q20" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="305"/>
-      <c r="S20" s="311" t="s">
+      <c r="R20" s="271"/>
+      <c r="S20" s="277" t="s">
         <v>45</v>
       </c>
-      <c r="T20" s="312"/>
-      <c r="U20" s="312"/>
-      <c r="V20" s="313"/>
-      <c r="W20" s="261" t="s">
+      <c r="T20" s="278"/>
+      <c r="U20" s="278"/>
+      <c r="V20" s="279"/>
+      <c r="W20" s="287" t="s">
         <v>12</v>
       </c>
-      <c r="X20" s="262"/>
-      <c r="Y20" s="262"/>
-      <c r="Z20" s="262"/>
-      <c r="AA20" s="262"/>
-      <c r="AB20" s="262"/>
-      <c r="AC20" s="262"/>
-      <c r="AD20" s="262"/>
-      <c r="AE20" s="262"/>
-      <c r="AF20" s="262"/>
-      <c r="AG20" s="262"/>
-      <c r="AH20" s="263"/>
+      <c r="X20" s="288"/>
+      <c r="Y20" s="288"/>
+      <c r="Z20" s="288"/>
+      <c r="AA20" s="288"/>
+      <c r="AB20" s="288"/>
+      <c r="AC20" s="288"/>
+      <c r="AD20" s="288"/>
+      <c r="AE20" s="288"/>
+      <c r="AF20" s="288"/>
+      <c r="AG20" s="288"/>
+      <c r="AH20" s="289"/>
     </row>
     <row r="21" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="299"/>
-      <c r="E21" s="264"/>
-      <c r="F21" s="265"/>
-      <c r="G21" s="265"/>
-      <c r="H21" s="266"/>
-      <c r="I21" s="306"/>
-      <c r="J21" s="307"/>
-      <c r="K21" s="307"/>
-      <c r="L21" s="307"/>
-      <c r="M21" s="307"/>
-      <c r="N21" s="307"/>
-      <c r="O21" s="307"/>
-      <c r="P21" s="308"/>
-      <c r="Q21" s="306"/>
-      <c r="R21" s="308"/>
-      <c r="S21" s="309" t="s">
+      <c r="D21" s="265"/>
+      <c r="E21" s="290"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="291"/>
+      <c r="H21" s="292"/>
+      <c r="I21" s="272"/>
+      <c r="J21" s="273"/>
+      <c r="K21" s="273"/>
+      <c r="L21" s="273"/>
+      <c r="M21" s="273"/>
+      <c r="N21" s="273"/>
+      <c r="O21" s="273"/>
+      <c r="P21" s="274"/>
+      <c r="Q21" s="272"/>
+      <c r="R21" s="274"/>
+      <c r="S21" s="275" t="s">
         <v>46</v>
       </c>
-      <c r="T21" s="310"/>
-      <c r="U21" s="309" t="s">
+      <c r="T21" s="276"/>
+      <c r="U21" s="275" t="s">
         <v>95</v>
       </c>
-      <c r="V21" s="310"/>
-      <c r="W21" s="264"/>
-      <c r="X21" s="265"/>
-      <c r="Y21" s="265"/>
-      <c r="Z21" s="265"/>
-      <c r="AA21" s="265"/>
-      <c r="AB21" s="265"/>
-      <c r="AC21" s="265"/>
-      <c r="AD21" s="265"/>
-      <c r="AE21" s="265"/>
-      <c r="AF21" s="265"/>
-      <c r="AG21" s="265"/>
-      <c r="AH21" s="266"/>
+      <c r="V21" s="276"/>
+      <c r="W21" s="290"/>
+      <c r="X21" s="291"/>
+      <c r="Y21" s="291"/>
+      <c r="Z21" s="291"/>
+      <c r="AA21" s="291"/>
+      <c r="AB21" s="291"/>
+      <c r="AC21" s="291"/>
+      <c r="AD21" s="291"/>
+      <c r="AE21" s="291"/>
+      <c r="AF21" s="291"/>
+      <c r="AG21" s="291"/>
+      <c r="AH21" s="292"/>
     </row>
     <row r="22" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D22" s="269">
+      <c r="D22" s="295">
         <v>1</v>
       </c>
-      <c r="E22" s="285" t="s">
+      <c r="E22" s="311" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="286"/>
-      <c r="G22" s="286"/>
-      <c r="H22" s="287"/>
-      <c r="I22" s="272" t="s">
+      <c r="F22" s="312"/>
+      <c r="G22" s="312"/>
+      <c r="H22" s="313"/>
+      <c r="I22" s="298" t="s">
         <v>107</v>
       </c>
-      <c r="J22" s="273"/>
-      <c r="K22" s="273"/>
-      <c r="L22" s="273"/>
-      <c r="M22" s="273"/>
-      <c r="N22" s="273"/>
-      <c r="O22" s="273"/>
-      <c r="P22" s="274"/>
-      <c r="Q22" s="214" t="s">
+      <c r="J22" s="299"/>
+      <c r="K22" s="299"/>
+      <c r="L22" s="299"/>
+      <c r="M22" s="299"/>
+      <c r="N22" s="299"/>
+      <c r="O22" s="299"/>
+      <c r="P22" s="300"/>
+      <c r="Q22" s="202" t="s">
         <v>94</v>
       </c>
-      <c r="R22" s="215"/>
-      <c r="S22" s="214" t="s">
+      <c r="R22" s="204"/>
+      <c r="S22" s="202" t="s">
         <v>94</v>
       </c>
-      <c r="T22" s="215"/>
-      <c r="U22" s="214" t="s">
+      <c r="T22" s="204"/>
+      <c r="U22" s="202" t="s">
         <v>94</v>
       </c>
-      <c r="V22" s="215"/>
-      <c r="W22" s="267" t="s">
+      <c r="V22" s="204"/>
+      <c r="W22" s="293" t="s">
         <v>108</v>
       </c>
-      <c r="X22" s="268"/>
-      <c r="Y22" s="268"/>
-      <c r="Z22" s="268"/>
-      <c r="AA22" s="268"/>
-      <c r="AB22" s="268"/>
-      <c r="AC22" s="268"/>
-      <c r="AD22" s="268"/>
-      <c r="AE22" s="268"/>
-      <c r="AF22" s="268"/>
-      <c r="AG22" s="268"/>
-      <c r="AH22" s="268"/>
+      <c r="X22" s="294"/>
+      <c r="Y22" s="294"/>
+      <c r="Z22" s="294"/>
+      <c r="AA22" s="294"/>
+      <c r="AB22" s="294"/>
+      <c r="AC22" s="294"/>
+      <c r="AD22" s="294"/>
+      <c r="AE22" s="294"/>
+      <c r="AF22" s="294"/>
+      <c r="AG22" s="294"/>
+      <c r="AH22" s="294"/>
     </row>
     <row r="23" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D23" s="270"/>
-      <c r="E23" s="288"/>
-      <c r="F23" s="289"/>
-      <c r="G23" s="289"/>
-      <c r="H23" s="290"/>
-      <c r="I23" s="275"/>
-      <c r="J23" s="276"/>
-      <c r="K23" s="276"/>
-      <c r="L23" s="276"/>
-      <c r="M23" s="276"/>
-      <c r="N23" s="276"/>
-      <c r="O23" s="276"/>
-      <c r="P23" s="277"/>
-      <c r="Q23" s="281"/>
-      <c r="R23" s="282"/>
-      <c r="S23" s="281"/>
-      <c r="T23" s="282"/>
-      <c r="U23" s="281"/>
-      <c r="V23" s="282"/>
-      <c r="W23" s="268"/>
-      <c r="X23" s="268"/>
-      <c r="Y23" s="268"/>
-      <c r="Z23" s="268"/>
-      <c r="AA23" s="268"/>
-      <c r="AB23" s="268"/>
-      <c r="AC23" s="268"/>
-      <c r="AD23" s="268"/>
-      <c r="AE23" s="268"/>
-      <c r="AF23" s="268"/>
-      <c r="AG23" s="268"/>
-      <c r="AH23" s="268"/>
+      <c r="D23" s="296"/>
+      <c r="E23" s="314"/>
+      <c r="F23" s="315"/>
+      <c r="G23" s="315"/>
+      <c r="H23" s="316"/>
+      <c r="I23" s="301"/>
+      <c r="J23" s="302"/>
+      <c r="K23" s="302"/>
+      <c r="L23" s="302"/>
+      <c r="M23" s="302"/>
+      <c r="N23" s="302"/>
+      <c r="O23" s="302"/>
+      <c r="P23" s="303"/>
+      <c r="Q23" s="307"/>
+      <c r="R23" s="308"/>
+      <c r="S23" s="307"/>
+      <c r="T23" s="308"/>
+      <c r="U23" s="307"/>
+      <c r="V23" s="308"/>
+      <c r="W23" s="294"/>
+      <c r="X23" s="294"/>
+      <c r="Y23" s="294"/>
+      <c r="Z23" s="294"/>
+      <c r="AA23" s="294"/>
+      <c r="AB23" s="294"/>
+      <c r="AC23" s="294"/>
+      <c r="AD23" s="294"/>
+      <c r="AE23" s="294"/>
+      <c r="AF23" s="294"/>
+      <c r="AG23" s="294"/>
+      <c r="AH23" s="294"/>
     </row>
     <row r="24" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D24" s="271"/>
-      <c r="E24" s="291"/>
-      <c r="F24" s="292"/>
-      <c r="G24" s="292"/>
-      <c r="H24" s="293"/>
-      <c r="I24" s="278"/>
-      <c r="J24" s="279"/>
-      <c r="K24" s="279"/>
-      <c r="L24" s="279"/>
-      <c r="M24" s="279"/>
-      <c r="N24" s="279"/>
-      <c r="O24" s="279"/>
-      <c r="P24" s="280"/>
-      <c r="Q24" s="283"/>
-      <c r="R24" s="284"/>
-      <c r="S24" s="283"/>
-      <c r="T24" s="284"/>
-      <c r="U24" s="283"/>
-      <c r="V24" s="284"/>
-      <c r="W24" s="268"/>
-      <c r="X24" s="268"/>
-      <c r="Y24" s="268"/>
-      <c r="Z24" s="268"/>
-      <c r="AA24" s="268"/>
-      <c r="AB24" s="268"/>
-      <c r="AC24" s="268"/>
-      <c r="AD24" s="268"/>
-      <c r="AE24" s="268"/>
-      <c r="AF24" s="268"/>
-      <c r="AG24" s="268"/>
-      <c r="AH24" s="268"/>
+      <c r="D24" s="297"/>
+      <c r="E24" s="317"/>
+      <c r="F24" s="318"/>
+      <c r="G24" s="318"/>
+      <c r="H24" s="319"/>
+      <c r="I24" s="304"/>
+      <c r="J24" s="305"/>
+      <c r="K24" s="305"/>
+      <c r="L24" s="305"/>
+      <c r="M24" s="305"/>
+      <c r="N24" s="305"/>
+      <c r="O24" s="305"/>
+      <c r="P24" s="306"/>
+      <c r="Q24" s="309"/>
+      <c r="R24" s="310"/>
+      <c r="S24" s="309"/>
+      <c r="T24" s="310"/>
+      <c r="U24" s="309"/>
+      <c r="V24" s="310"/>
+      <c r="W24" s="294"/>
+      <c r="X24" s="294"/>
+      <c r="Y24" s="294"/>
+      <c r="Z24" s="294"/>
+      <c r="AA24" s="294"/>
+      <c r="AB24" s="294"/>
+      <c r="AC24" s="294"/>
+      <c r="AD24" s="294"/>
+      <c r="AE24" s="294"/>
+      <c r="AF24" s="294"/>
+      <c r="AG24" s="294"/>
+      <c r="AH24" s="294"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="W20:AH21"/>
+    <mergeCell ref="W22:AH24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="I22:P24"/>
+    <mergeCell ref="Q22:R24"/>
+    <mergeCell ref="S22:T24"/>
+    <mergeCell ref="U22:V24"/>
+    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -11711,23 +11722,12 @@
     <mergeCell ref="D10:G11"/>
     <mergeCell ref="D12:G14"/>
     <mergeCell ref="D15:G16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="W20:AH21"/>
-    <mergeCell ref="W22:AH24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="I22:P24"/>
-    <mergeCell ref="Q22:R24"/>
-    <mergeCell ref="S22:T24"/>
-    <mergeCell ref="U22:V24"/>
-    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
@@ -11762,158 +11762,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="247"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="252" t="str">
+      <c r="P1" s="218"/>
+      <c r="Q1" s="218"/>
+      <c r="R1" s="219"/>
+      <c r="S1" s="248" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="253"/>
-      <c r="U1" s="253"/>
-      <c r="V1" s="253"/>
-      <c r="W1" s="253"/>
-      <c r="X1" s="253"/>
-      <c r="Y1" s="253"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="250"/>
+      <c r="AA1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="248">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="258">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="249"/>
-      <c r="AI1" s="250"/>
+      <c r="AH1" s="259"/>
+      <c r="AI1" s="260"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
-      <c r="X2" s="256"/>
-      <c r="Y2" s="256"/>
-      <c r="Z2" s="257"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="222"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="252"/>
+      <c r="X2" s="252"/>
+      <c r="Y2" s="252"/>
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="248" t="str">
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="249"/>
-      <c r="AI2" s="250"/>
+      <c r="AH2" s="259"/>
+      <c r="AI2" s="260"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="258"/>
-      <c r="T3" s="259"/>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
-      <c r="Y3" s="259"/>
-      <c r="Z3" s="260"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="223"/>
+      <c r="P3" s="224"/>
+      <c r="Q3" s="224"/>
+      <c r="R3" s="225"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="255"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="255"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="216"/>
+      <c r="AC3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="248" t="str">
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="249"/>
-      <c r="AI3" s="250"/>
+      <c r="AH3" s="259"/>
+      <c r="AI3" s="260"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11924,6 +11924,14 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
@@ -11933,14 +11941,6 @@
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -11970,164 +11970,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="251" t="str">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="247"/>
-      <c r="O1" s="190" t="s">
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="217" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="192"/>
-      <c r="S1" s="252" t="str">
+      <c r="P1" s="218"/>
+      <c r="Q1" s="218"/>
+      <c r="R1" s="219"/>
+      <c r="S1" s="248" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="253"/>
-      <c r="U1" s="253"/>
-      <c r="V1" s="253"/>
-      <c r="W1" s="253"/>
-      <c r="X1" s="253"/>
-      <c r="Y1" s="253"/>
-      <c r="Z1" s="254"/>
-      <c r="AA1" s="184" t="s">
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="250"/>
+      <c r="AA1" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="218" t="str">
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="248">
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="192"/>
+      <c r="AG1" s="258">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="249"/>
-      <c r="AI1" s="250"/>
+      <c r="AH1" s="259"/>
+      <c r="AI1" s="260"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="251" t="str">
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="247"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="256"/>
-      <c r="U2" s="256"/>
-      <c r="V2" s="256"/>
-      <c r="W2" s="256"/>
-      <c r="X2" s="256"/>
-      <c r="Y2" s="256"/>
-      <c r="Z2" s="257"/>
-      <c r="AA2" s="184" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="222"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="252"/>
+      <c r="X2" s="252"/>
+      <c r="Y2" s="252"/>
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="218" t="str">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
-      <c r="AF2" s="220"/>
-      <c r="AG2" s="248" t="str">
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="192"/>
+      <c r="AG2" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="249"/>
-      <c r="AI2" s="250"/>
+      <c r="AH2" s="259"/>
+      <c r="AI2" s="260"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:38" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="251" t="str">
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="257" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="247"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="258"/>
-      <c r="T3" s="259"/>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
-      <c r="Y3" s="259"/>
-      <c r="Z3" s="260"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="218" t="str">
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="223"/>
+      <c r="P3" s="224"/>
+      <c r="Q3" s="224"/>
+      <c r="R3" s="225"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="255"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="255"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="216"/>
+      <c r="AC3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="220"/>
-      <c r="AG3" s="248" t="str">
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="192"/>
+      <c r="AG3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="249"/>
-      <c r="AI3" s="250"/>
+      <c r="AH3" s="259"/>
+      <c r="AI3" s="260"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -12147,117 +12147,117 @@
     </row>
     <row r="9" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="329" t="s">
+      <c r="D10" s="351" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="330"/>
-      <c r="F10" s="330"/>
-      <c r="G10" s="330"/>
-      <c r="H10" s="331"/>
-      <c r="I10" s="332" t="s">
+      <c r="E10" s="352"/>
+      <c r="F10" s="352"/>
+      <c r="G10" s="352"/>
+      <c r="H10" s="353"/>
+      <c r="I10" s="327" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="237"/>
-      <c r="M10" s="237"/>
-      <c r="N10" s="237"/>
-      <c r="O10" s="237"/>
-      <c r="P10" s="237"/>
-      <c r="Q10" s="237"/>
-      <c r="R10" s="237"/>
-      <c r="S10" s="237"/>
-      <c r="T10" s="237"/>
-      <c r="U10" s="237"/>
-      <c r="V10" s="237"/>
-      <c r="W10" s="237"/>
-      <c r="X10" s="237"/>
-      <c r="Y10" s="237"/>
-      <c r="Z10" s="237"/>
-      <c r="AA10" s="237"/>
-      <c r="AB10" s="237"/>
-      <c r="AC10" s="237"/>
-      <c r="AD10" s="237"/>
-      <c r="AE10" s="237"/>
-      <c r="AF10" s="237"/>
-      <c r="AG10" s="237"/>
-      <c r="AH10" s="238"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="197"/>
+      <c r="M10" s="197"/>
+      <c r="N10" s="197"/>
+      <c r="O10" s="197"/>
+      <c r="P10" s="197"/>
+      <c r="Q10" s="197"/>
+      <c r="R10" s="197"/>
+      <c r="S10" s="197"/>
+      <c r="T10" s="197"/>
+      <c r="U10" s="197"/>
+      <c r="V10" s="197"/>
+      <c r="W10" s="197"/>
+      <c r="X10" s="197"/>
+      <c r="Y10" s="197"/>
+      <c r="Z10" s="197"/>
+      <c r="AA10" s="197"/>
+      <c r="AB10" s="197"/>
+      <c r="AC10" s="197"/>
+      <c r="AD10" s="197"/>
+      <c r="AE10" s="197"/>
+      <c r="AF10" s="197"/>
+      <c r="AG10" s="197"/>
+      <c r="AH10" s="198"/>
       <c r="AI10" s="46"/>
     </row>
     <row r="11" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="329" t="s">
+      <c r="D11" s="351" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="330"/>
-      <c r="F11" s="330"/>
-      <c r="G11" s="330"/>
-      <c r="H11" s="331"/>
-      <c r="I11" s="332" t="s">
+      <c r="E11" s="352"/>
+      <c r="F11" s="352"/>
+      <c r="G11" s="352"/>
+      <c r="H11" s="353"/>
+      <c r="I11" s="327" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="237"/>
-      <c r="P11" s="237"/>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="237"/>
-      <c r="S11" s="237"/>
-      <c r="T11" s="237"/>
-      <c r="U11" s="237"/>
-      <c r="V11" s="237"/>
-      <c r="W11" s="237"/>
-      <c r="X11" s="237"/>
-      <c r="Y11" s="237"/>
-      <c r="Z11" s="237"/>
-      <c r="AA11" s="237"/>
-      <c r="AB11" s="237"/>
-      <c r="AC11" s="237"/>
-      <c r="AD11" s="237"/>
-      <c r="AE11" s="237"/>
-      <c r="AF11" s="237"/>
-      <c r="AG11" s="237"/>
-      <c r="AH11" s="238"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="197"/>
+      <c r="M11" s="197"/>
+      <c r="N11" s="197"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="197"/>
+      <c r="Q11" s="197"/>
+      <c r="R11" s="197"/>
+      <c r="S11" s="197"/>
+      <c r="T11" s="197"/>
+      <c r="U11" s="197"/>
+      <c r="V11" s="197"/>
+      <c r="W11" s="197"/>
+      <c r="X11" s="197"/>
+      <c r="Y11" s="197"/>
+      <c r="Z11" s="197"/>
+      <c r="AA11" s="197"/>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="197"/>
+      <c r="AD11" s="197"/>
+      <c r="AE11" s="197"/>
+      <c r="AF11" s="197"/>
+      <c r="AG11" s="197"/>
+      <c r="AH11" s="198"/>
       <c r="AI11" s="46"/>
     </row>
     <row r="12" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="329" t="s">
+      <c r="D12" s="351" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="330"/>
-      <c r="F12" s="330"/>
-      <c r="G12" s="330"/>
-      <c r="H12" s="331"/>
-      <c r="I12" s="332" t="s">
+      <c r="E12" s="352"/>
+      <c r="F12" s="352"/>
+      <c r="G12" s="352"/>
+      <c r="H12" s="353"/>
+      <c r="I12" s="327" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="237"/>
-      <c r="M12" s="237"/>
-      <c r="N12" s="237"/>
-      <c r="O12" s="237"/>
-      <c r="P12" s="237"/>
-      <c r="Q12" s="237"/>
-      <c r="R12" s="237"/>
-      <c r="S12" s="237"/>
-      <c r="T12" s="237"/>
-      <c r="U12" s="237"/>
-      <c r="V12" s="237"/>
-      <c r="W12" s="237"/>
-      <c r="X12" s="237"/>
-      <c r="Y12" s="237"/>
-      <c r="Z12" s="237"/>
-      <c r="AA12" s="237"/>
-      <c r="AB12" s="237"/>
-      <c r="AC12" s="237"/>
-      <c r="AD12" s="237"/>
-      <c r="AE12" s="237"/>
-      <c r="AF12" s="237"/>
-      <c r="AG12" s="237"/>
-      <c r="AH12" s="238"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="197"/>
+      <c r="M12" s="197"/>
+      <c r="N12" s="197"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="197"/>
+      <c r="R12" s="197"/>
+      <c r="S12" s="197"/>
+      <c r="T12" s="197"/>
+      <c r="U12" s="197"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="197"/>
+      <c r="X12" s="197"/>
+      <c r="Y12" s="197"/>
+      <c r="Z12" s="197"/>
+      <c r="AA12" s="197"/>
+      <c r="AB12" s="197"/>
+      <c r="AC12" s="197"/>
+      <c r="AD12" s="197"/>
+      <c r="AE12" s="197"/>
+      <c r="AF12" s="197"/>
+      <c r="AG12" s="197"/>
+      <c r="AH12" s="198"/>
       <c r="AI12" s="46"/>
     </row>
     <row r="13" spans="1:38" s="114" customFormat="1" x14ac:dyDescent="0.15">
@@ -12347,83 +12347,83 @@
       <c r="D22" s="132" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="350" t="s">
+      <c r="E22" s="339" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="351"/>
-      <c r="G22" s="352"/>
-      <c r="H22" s="353" t="s">
+      <c r="F22" s="340"/>
+      <c r="G22" s="341"/>
+      <c r="H22" s="342" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="354"/>
-      <c r="J22" s="355"/>
-      <c r="K22" s="314" t="s">
+      <c r="I22" s="343"/>
+      <c r="J22" s="344"/>
+      <c r="K22" s="280" t="s">
         <v>77</v>
       </c>
-      <c r="L22" s="315"/>
-      <c r="M22" s="315"/>
-      <c r="N22" s="315"/>
-      <c r="O22" s="315"/>
-      <c r="P22" s="315"/>
-      <c r="Q22" s="315"/>
-      <c r="R22" s="315"/>
-      <c r="S22" s="315"/>
-      <c r="T22" s="315"/>
-      <c r="U22" s="315"/>
-      <c r="V22" s="315"/>
-      <c r="W22" s="315"/>
-      <c r="X22" s="315"/>
-      <c r="Y22" s="315"/>
-      <c r="Z22" s="315"/>
-      <c r="AA22" s="315"/>
-      <c r="AB22" s="315"/>
-      <c r="AC22" s="315"/>
-      <c r="AD22" s="315"/>
-      <c r="AE22" s="315"/>
-      <c r="AF22" s="315"/>
-      <c r="AG22" s="315"/>
-      <c r="AH22" s="316"/>
+      <c r="L22" s="281"/>
+      <c r="M22" s="281"/>
+      <c r="N22" s="281"/>
+      <c r="O22" s="281"/>
+      <c r="P22" s="281"/>
+      <c r="Q22" s="281"/>
+      <c r="R22" s="281"/>
+      <c r="S22" s="281"/>
+      <c r="T22" s="281"/>
+      <c r="U22" s="281"/>
+      <c r="V22" s="281"/>
+      <c r="W22" s="281"/>
+      <c r="X22" s="281"/>
+      <c r="Y22" s="281"/>
+      <c r="Z22" s="281"/>
+      <c r="AA22" s="281"/>
+      <c r="AB22" s="281"/>
+      <c r="AC22" s="281"/>
+      <c r="AD22" s="281"/>
+      <c r="AE22" s="281"/>
+      <c r="AF22" s="281"/>
+      <c r="AG22" s="281"/>
+      <c r="AH22" s="282"/>
     </row>
     <row r="23" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="43">
         <v>1</v>
       </c>
-      <c r="E23" s="236">
+      <c r="E23" s="196">
         <v>0</v>
       </c>
-      <c r="F23" s="237"/>
-      <c r="G23" s="238"/>
-      <c r="H23" s="332" t="s">
+      <c r="F23" s="197"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="327" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="237"/>
-      <c r="J23" s="238"/>
-      <c r="K23" s="332" t="s">
+      <c r="I23" s="197"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="327" t="s">
         <v>113</v>
       </c>
-      <c r="L23" s="364"/>
-      <c r="M23" s="364"/>
-      <c r="N23" s="364"/>
-      <c r="O23" s="364"/>
-      <c r="P23" s="364"/>
-      <c r="Q23" s="364"/>
-      <c r="R23" s="364"/>
-      <c r="S23" s="364"/>
-      <c r="T23" s="364"/>
-      <c r="U23" s="364"/>
-      <c r="V23" s="364"/>
-      <c r="W23" s="364"/>
-      <c r="X23" s="364"/>
-      <c r="Y23" s="364"/>
-      <c r="Z23" s="364"/>
-      <c r="AA23" s="364"/>
-      <c r="AB23" s="364"/>
-      <c r="AC23" s="364"/>
-      <c r="AD23" s="364"/>
-      <c r="AE23" s="364"/>
-      <c r="AF23" s="364"/>
-      <c r="AG23" s="364"/>
-      <c r="AH23" s="365"/>
+      <c r="L23" s="337"/>
+      <c r="M23" s="337"/>
+      <c r="N23" s="337"/>
+      <c r="O23" s="337"/>
+      <c r="P23" s="337"/>
+      <c r="Q23" s="337"/>
+      <c r="R23" s="337"/>
+      <c r="S23" s="337"/>
+      <c r="T23" s="337"/>
+      <c r="U23" s="337"/>
+      <c r="V23" s="337"/>
+      <c r="W23" s="337"/>
+      <c r="X23" s="337"/>
+      <c r="Y23" s="337"/>
+      <c r="Z23" s="337"/>
+      <c r="AA23" s="337"/>
+      <c r="AB23" s="337"/>
+      <c r="AC23" s="337"/>
+      <c r="AD23" s="337"/>
+      <c r="AE23" s="337"/>
+      <c r="AF23" s="337"/>
+      <c r="AG23" s="337"/>
+      <c r="AH23" s="338"/>
     </row>
     <row r="26" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C26" s="17" t="s">
@@ -12431,7 +12431,7 @@
       </c>
     </row>
     <row r="28" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="D28" s="366" t="s">
+      <c r="D28" s="345" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="133" t="s">
@@ -12453,17 +12453,17 @@
       <c r="Q28" s="134"/>
       <c r="R28" s="134"/>
       <c r="S28" s="135"/>
-      <c r="T28" s="327" t="s">
+      <c r="T28" s="376" t="s">
         <v>56</v>
       </c>
-      <c r="U28" s="322" t="s">
+      <c r="U28" s="371" t="s">
         <v>57</v>
       </c>
-      <c r="V28" s="323"/>
-      <c r="W28" s="323"/>
-      <c r="X28" s="323"/>
-      <c r="Y28" s="323"/>
-      <c r="Z28" s="324"/>
+      <c r="V28" s="372"/>
+      <c r="W28" s="372"/>
+      <c r="X28" s="372"/>
+      <c r="Y28" s="372"/>
+      <c r="Z28" s="373"/>
       <c r="AA28" s="133" t="s">
         <v>21</v>
       </c>
@@ -12476,7 +12476,7 @@
       <c r="AH28" s="135"/>
     </row>
     <row r="29" spans="3:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="367"/>
+      <c r="D29" s="346"/>
       <c r="E29" s="136"/>
       <c r="F29" s="137"/>
       <c r="G29" s="137"/>
@@ -12492,7 +12492,7 @@
       <c r="Q29" s="137"/>
       <c r="R29" s="137"/>
       <c r="S29" s="138"/>
-      <c r="T29" s="328"/>
+      <c r="T29" s="377"/>
       <c r="U29" s="45" t="s">
         <v>58</v>
       </c>
@@ -12505,10 +12505,10 @@
       <c r="X29" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="Y29" s="320" t="s">
+      <c r="Y29" s="369" t="s">
         <v>62</v>
       </c>
-      <c r="Z29" s="321"/>
+      <c r="Z29" s="370"/>
       <c r="AA29" s="136"/>
       <c r="AB29" s="137"/>
       <c r="AC29" s="137"/>
@@ -12556,10 +12556,10 @@
       <c r="X30" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="Y30" s="325" t="s">
+      <c r="Y30" s="374" t="s">
         <v>94</v>
       </c>
-      <c r="Z30" s="326"/>
+      <c r="Z30" s="375"/>
       <c r="AA30" s="125"/>
       <c r="AB30" s="126"/>
       <c r="AC30" s="126"/>
@@ -12607,10 +12607,10 @@
       <c r="X31" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="Y31" s="325" t="s">
+      <c r="Y31" s="374" t="s">
         <v>94</v>
       </c>
-      <c r="Z31" s="326"/>
+      <c r="Z31" s="375"/>
       <c r="AA31" s="125"/>
       <c r="AB31" s="126"/>
       <c r="AC31" s="126"/>
@@ -12634,101 +12634,101 @@
       <c r="E36" s="41"/>
     </row>
     <row r="37" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="348" t="s">
+      <c r="E37" s="347" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="348"/>
-      <c r="G37" s="348"/>
-      <c r="H37" s="348"/>
-      <c r="I37" s="348"/>
-      <c r="J37" s="348"/>
-      <c r="K37" s="348"/>
-      <c r="L37" s="348"/>
-      <c r="M37" s="348"/>
-      <c r="N37" s="348"/>
-      <c r="O37" s="348"/>
-      <c r="P37" s="348"/>
-      <c r="Q37" s="348"/>
-      <c r="R37" s="348"/>
-      <c r="S37" s="348"/>
-      <c r="T37" s="348"/>
-      <c r="U37" s="348"/>
-      <c r="V37" s="348"/>
-      <c r="W37" s="348"/>
-      <c r="X37" s="348"/>
-      <c r="Y37" s="348"/>
-      <c r="Z37" s="348"/>
-      <c r="AA37" s="348"/>
-      <c r="AB37" s="348"/>
-      <c r="AC37" s="348"/>
-      <c r="AD37" s="348"/>
-      <c r="AE37" s="348"/>
-      <c r="AF37" s="348"/>
-      <c r="AG37" s="348"/>
-      <c r="AH37" s="348"/>
+      <c r="F37" s="347"/>
+      <c r="G37" s="347"/>
+      <c r="H37" s="347"/>
+      <c r="I37" s="347"/>
+      <c r="J37" s="347"/>
+      <c r="K37" s="347"/>
+      <c r="L37" s="347"/>
+      <c r="M37" s="347"/>
+      <c r="N37" s="347"/>
+      <c r="O37" s="347"/>
+      <c r="P37" s="347"/>
+      <c r="Q37" s="347"/>
+      <c r="R37" s="347"/>
+      <c r="S37" s="347"/>
+      <c r="T37" s="347"/>
+      <c r="U37" s="347"/>
+      <c r="V37" s="347"/>
+      <c r="W37" s="347"/>
+      <c r="X37" s="347"/>
+      <c r="Y37" s="347"/>
+      <c r="Z37" s="347"/>
+      <c r="AA37" s="347"/>
+      <c r="AB37" s="347"/>
+      <c r="AC37" s="347"/>
+      <c r="AD37" s="347"/>
+      <c r="AE37" s="347"/>
+      <c r="AF37" s="347"/>
+      <c r="AG37" s="347"/>
+      <c r="AH37" s="347"/>
       <c r="AI37" s="90"/>
       <c r="AJ37" s="89"/>
     </row>
     <row r="38" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="347" t="s">
+      <c r="E38" s="348" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="368" t="s">
+      <c r="F38" s="350" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="368"/>
-      <c r="H38" s="368"/>
-      <c r="I38" s="368"/>
-      <c r="J38" s="368"/>
-      <c r="K38" s="368"/>
-      <c r="L38" s="368" t="s">
+      <c r="G38" s="350"/>
+      <c r="H38" s="350"/>
+      <c r="I38" s="350"/>
+      <c r="J38" s="350"/>
+      <c r="K38" s="350"/>
+      <c r="L38" s="350" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="368"/>
-      <c r="N38" s="368"/>
-      <c r="O38" s="368"/>
-      <c r="P38" s="368"/>
-      <c r="Q38" s="345" t="s">
+      <c r="M38" s="350"/>
+      <c r="N38" s="350"/>
+      <c r="O38" s="350"/>
+      <c r="P38" s="350"/>
+      <c r="Q38" s="363" t="s">
         <v>40</v>
       </c>
-      <c r="R38" s="347" t="s">
+      <c r="R38" s="348" t="s">
         <v>55</v>
       </c>
-      <c r="S38" s="347"/>
-      <c r="T38" s="347"/>
-      <c r="U38" s="347"/>
-      <c r="V38" s="347"/>
-      <c r="W38" s="348" t="s">
+      <c r="S38" s="348"/>
+      <c r="T38" s="348"/>
+      <c r="U38" s="348"/>
+      <c r="V38" s="348"/>
+      <c r="W38" s="347" t="s">
         <v>21</v>
       </c>
-      <c r="X38" s="348"/>
-      <c r="Y38" s="348"/>
-      <c r="Z38" s="348"/>
-      <c r="AA38" s="348"/>
-      <c r="AB38" s="348"/>
-      <c r="AC38" s="348"/>
-      <c r="AD38" s="348"/>
-      <c r="AE38" s="348"/>
-      <c r="AF38" s="348"/>
-      <c r="AG38" s="348"/>
-      <c r="AH38" s="348"/>
+      <c r="X38" s="347"/>
+      <c r="Y38" s="347"/>
+      <c r="Z38" s="347"/>
+      <c r="AA38" s="347"/>
+      <c r="AB38" s="347"/>
+      <c r="AC38" s="347"/>
+      <c r="AD38" s="347"/>
+      <c r="AE38" s="347"/>
+      <c r="AF38" s="347"/>
+      <c r="AG38" s="347"/>
+      <c r="AH38" s="347"/>
       <c r="AI38" s="91"/>
       <c r="AJ38" s="89"/>
     </row>
     <row r="39" spans="3:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E39" s="349"/>
-      <c r="F39" s="348"/>
-      <c r="G39" s="348"/>
-      <c r="H39" s="348"/>
-      <c r="I39" s="348"/>
-      <c r="J39" s="348"/>
-      <c r="K39" s="348"/>
-      <c r="L39" s="348"/>
-      <c r="M39" s="348"/>
-      <c r="N39" s="348"/>
-      <c r="O39" s="348"/>
-      <c r="P39" s="348"/>
-      <c r="Q39" s="346"/>
+      <c r="F39" s="347"/>
+      <c r="G39" s="347"/>
+      <c r="H39" s="347"/>
+      <c r="I39" s="347"/>
+      <c r="J39" s="347"/>
+      <c r="K39" s="347"/>
+      <c r="L39" s="347"/>
+      <c r="M39" s="347"/>
+      <c r="N39" s="347"/>
+      <c r="O39" s="347"/>
+      <c r="P39" s="347"/>
+      <c r="Q39" s="364"/>
       <c r="R39" s="349" t="s">
         <v>41</v>
       </c>
@@ -12736,18 +12736,18 @@
       <c r="T39" s="349"/>
       <c r="U39" s="349"/>
       <c r="V39" s="349"/>
-      <c r="W39" s="348"/>
-      <c r="X39" s="348"/>
-      <c r="Y39" s="348"/>
-      <c r="Z39" s="348"/>
-      <c r="AA39" s="348"/>
-      <c r="AB39" s="348"/>
-      <c r="AC39" s="348"/>
-      <c r="AD39" s="348"/>
-      <c r="AE39" s="348"/>
-      <c r="AF39" s="348"/>
-      <c r="AG39" s="348"/>
-      <c r="AH39" s="348"/>
+      <c r="W39" s="347"/>
+      <c r="X39" s="347"/>
+      <c r="Y39" s="347"/>
+      <c r="Z39" s="347"/>
+      <c r="AA39" s="347"/>
+      <c r="AB39" s="347"/>
+      <c r="AC39" s="347"/>
+      <c r="AD39" s="347"/>
+      <c r="AE39" s="347"/>
+      <c r="AF39" s="347"/>
+      <c r="AG39" s="347"/>
+      <c r="AH39" s="347"/>
       <c r="AI39" s="91"/>
       <c r="AJ39" s="89"/>
     </row>
@@ -12755,14 +12755,14 @@
       <c r="E40" s="44">
         <v>1</v>
       </c>
-      <c r="F40" s="360" t="s">
+      <c r="F40" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="G40" s="361"/>
-      <c r="H40" s="361"/>
-      <c r="I40" s="361"/>
-      <c r="J40" s="361"/>
-      <c r="K40" s="361"/>
+      <c r="G40" s="326"/>
+      <c r="H40" s="326"/>
+      <c r="I40" s="326"/>
+      <c r="J40" s="326"/>
+      <c r="K40" s="326"/>
       <c r="L40" s="141" t="s">
         <v>119</v>
       </c>
@@ -12773,25 +12773,25 @@
       <c r="Q40" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="R40" s="360" t="s">
+      <c r="R40" s="325" t="s">
         <v>110</v>
       </c>
-      <c r="S40" s="361"/>
-      <c r="T40" s="361"/>
-      <c r="U40" s="361"/>
-      <c r="V40" s="361"/>
-      <c r="W40" s="361"/>
-      <c r="X40" s="361"/>
-      <c r="Y40" s="361"/>
-      <c r="Z40" s="361"/>
-      <c r="AA40" s="361"/>
-      <c r="AB40" s="361"/>
-      <c r="AC40" s="361"/>
-      <c r="AD40" s="361"/>
-      <c r="AE40" s="361"/>
-      <c r="AF40" s="361"/>
-      <c r="AG40" s="361"/>
-      <c r="AH40" s="361"/>
+      <c r="S40" s="326"/>
+      <c r="T40" s="326"/>
+      <c r="U40" s="326"/>
+      <c r="V40" s="326"/>
+      <c r="W40" s="326"/>
+      <c r="X40" s="326"/>
+      <c r="Y40" s="326"/>
+      <c r="Z40" s="326"/>
+      <c r="AA40" s="326"/>
+      <c r="AB40" s="326"/>
+      <c r="AC40" s="326"/>
+      <c r="AD40" s="326"/>
+      <c r="AE40" s="326"/>
+      <c r="AF40" s="326"/>
+      <c r="AG40" s="326"/>
+      <c r="AH40" s="326"/>
       <c r="AI40" s="24"/>
       <c r="AJ40" s="89"/>
     </row>
@@ -12799,14 +12799,14 @@
       <c r="E41" s="44">
         <v>2</v>
       </c>
-      <c r="F41" s="360" t="s">
+      <c r="F41" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="G41" s="361"/>
-      <c r="H41" s="361"/>
-      <c r="I41" s="361"/>
-      <c r="J41" s="361"/>
-      <c r="K41" s="361"/>
+      <c r="G41" s="326"/>
+      <c r="H41" s="326"/>
+      <c r="I41" s="326"/>
+      <c r="J41" s="326"/>
+      <c r="K41" s="326"/>
       <c r="L41" s="141" t="s">
         <v>120</v>
       </c>
@@ -12817,25 +12817,25 @@
       <c r="Q41" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="R41" s="360" t="s">
+      <c r="R41" s="325" t="s">
         <v>110</v>
       </c>
-      <c r="S41" s="361"/>
-      <c r="T41" s="361"/>
-      <c r="U41" s="361"/>
-      <c r="V41" s="361"/>
-      <c r="W41" s="361"/>
-      <c r="X41" s="361"/>
-      <c r="Y41" s="361"/>
-      <c r="Z41" s="361"/>
-      <c r="AA41" s="361"/>
-      <c r="AB41" s="361"/>
-      <c r="AC41" s="361"/>
-      <c r="AD41" s="361"/>
-      <c r="AE41" s="361"/>
-      <c r="AF41" s="361"/>
-      <c r="AG41" s="361"/>
-      <c r="AH41" s="361"/>
+      <c r="S41" s="326"/>
+      <c r="T41" s="326"/>
+      <c r="U41" s="326"/>
+      <c r="V41" s="326"/>
+      <c r="W41" s="326"/>
+      <c r="X41" s="326"/>
+      <c r="Y41" s="326"/>
+      <c r="Z41" s="326"/>
+      <c r="AA41" s="326"/>
+      <c r="AB41" s="326"/>
+      <c r="AC41" s="326"/>
+      <c r="AD41" s="326"/>
+      <c r="AE41" s="326"/>
+      <c r="AF41" s="326"/>
+      <c r="AG41" s="326"/>
+      <c r="AH41" s="326"/>
       <c r="AI41" s="23"/>
       <c r="AJ41" s="88"/>
     </row>
@@ -12843,14 +12843,14 @@
       <c r="E42" s="44">
         <v>3</v>
       </c>
-      <c r="F42" s="360" t="s">
+      <c r="F42" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="G42" s="361"/>
-      <c r="H42" s="361"/>
-      <c r="I42" s="361"/>
-      <c r="J42" s="361"/>
-      <c r="K42" s="361"/>
+      <c r="G42" s="326"/>
+      <c r="H42" s="326"/>
+      <c r="I42" s="326"/>
+      <c r="J42" s="326"/>
+      <c r="K42" s="326"/>
       <c r="L42" s="141" t="s">
         <v>121</v>
       </c>
@@ -12861,25 +12861,25 @@
       <c r="Q42" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="R42" s="360" t="s">
+      <c r="R42" s="325" t="s">
         <v>110</v>
       </c>
-      <c r="S42" s="361"/>
-      <c r="T42" s="361"/>
-      <c r="U42" s="361"/>
-      <c r="V42" s="361"/>
-      <c r="W42" s="361"/>
-      <c r="X42" s="361"/>
-      <c r="Y42" s="361"/>
-      <c r="Z42" s="361"/>
-      <c r="AA42" s="361"/>
-      <c r="AB42" s="361"/>
-      <c r="AC42" s="361"/>
-      <c r="AD42" s="361"/>
-      <c r="AE42" s="361"/>
-      <c r="AF42" s="361"/>
-      <c r="AG42" s="361"/>
-      <c r="AH42" s="361"/>
+      <c r="S42" s="326"/>
+      <c r="T42" s="326"/>
+      <c r="U42" s="326"/>
+      <c r="V42" s="326"/>
+      <c r="W42" s="326"/>
+      <c r="X42" s="326"/>
+      <c r="Y42" s="326"/>
+      <c r="Z42" s="326"/>
+      <c r="AA42" s="326"/>
+      <c r="AB42" s="326"/>
+      <c r="AC42" s="326"/>
+      <c r="AD42" s="326"/>
+      <c r="AE42" s="326"/>
+      <c r="AF42" s="326"/>
+      <c r="AG42" s="326"/>
+      <c r="AH42" s="326"/>
       <c r="AI42" s="23"/>
       <c r="AJ42" s="88"/>
     </row>
@@ -12887,14 +12887,14 @@
       <c r="E43" s="44">
         <v>4</v>
       </c>
-      <c r="F43" s="360" t="s">
+      <c r="F43" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="G43" s="361"/>
-      <c r="H43" s="361"/>
-      <c r="I43" s="361"/>
-      <c r="J43" s="361"/>
-      <c r="K43" s="361"/>
+      <c r="G43" s="326"/>
+      <c r="H43" s="326"/>
+      <c r="I43" s="326"/>
+      <c r="J43" s="326"/>
+      <c r="K43" s="326"/>
       <c r="L43" s="141" t="s">
         <v>122</v>
       </c>
@@ -12905,25 +12905,25 @@
       <c r="Q43" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="R43" s="360" t="s">
+      <c r="R43" s="325" t="s">
         <v>110</v>
       </c>
-      <c r="S43" s="361"/>
-      <c r="T43" s="361"/>
-      <c r="U43" s="361"/>
-      <c r="V43" s="361"/>
-      <c r="W43" s="361"/>
-      <c r="X43" s="361"/>
-      <c r="Y43" s="361"/>
-      <c r="Z43" s="361"/>
-      <c r="AA43" s="361"/>
-      <c r="AB43" s="361"/>
-      <c r="AC43" s="361"/>
-      <c r="AD43" s="361"/>
-      <c r="AE43" s="361"/>
-      <c r="AF43" s="361"/>
-      <c r="AG43" s="361"/>
-      <c r="AH43" s="361"/>
+      <c r="S43" s="326"/>
+      <c r="T43" s="326"/>
+      <c r="U43" s="326"/>
+      <c r="V43" s="326"/>
+      <c r="W43" s="326"/>
+      <c r="X43" s="326"/>
+      <c r="Y43" s="326"/>
+      <c r="Z43" s="326"/>
+      <c r="AA43" s="326"/>
+      <c r="AB43" s="326"/>
+      <c r="AC43" s="326"/>
+      <c r="AD43" s="326"/>
+      <c r="AE43" s="326"/>
+      <c r="AF43" s="326"/>
+      <c r="AG43" s="326"/>
+      <c r="AH43" s="326"/>
       <c r="AI43" s="23"/>
       <c r="AJ43" s="88"/>
     </row>
@@ -12931,14 +12931,14 @@
       <c r="E44" s="44">
         <v>5</v>
       </c>
-      <c r="F44" s="360" t="s">
+      <c r="F44" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="G44" s="361"/>
-      <c r="H44" s="361"/>
-      <c r="I44" s="361"/>
-      <c r="J44" s="361"/>
-      <c r="K44" s="361"/>
+      <c r="G44" s="326"/>
+      <c r="H44" s="326"/>
+      <c r="I44" s="326"/>
+      <c r="J44" s="326"/>
+      <c r="K44" s="326"/>
       <c r="L44" s="141" t="s">
         <v>130</v>
       </c>
@@ -12949,25 +12949,25 @@
       <c r="Q44" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="R44" s="360" t="s">
+      <c r="R44" s="325" t="s">
         <v>110</v>
       </c>
-      <c r="S44" s="361"/>
-      <c r="T44" s="361"/>
-      <c r="U44" s="361"/>
-      <c r="V44" s="361"/>
-      <c r="W44" s="361"/>
-      <c r="X44" s="361"/>
-      <c r="Y44" s="361"/>
-      <c r="Z44" s="361"/>
-      <c r="AA44" s="361"/>
-      <c r="AB44" s="361"/>
-      <c r="AC44" s="361"/>
-      <c r="AD44" s="361"/>
-      <c r="AE44" s="361"/>
-      <c r="AF44" s="361"/>
-      <c r="AG44" s="361"/>
-      <c r="AH44" s="361"/>
+      <c r="S44" s="326"/>
+      <c r="T44" s="326"/>
+      <c r="U44" s="326"/>
+      <c r="V44" s="326"/>
+      <c r="W44" s="326"/>
+      <c r="X44" s="326"/>
+      <c r="Y44" s="326"/>
+      <c r="Z44" s="326"/>
+      <c r="AA44" s="326"/>
+      <c r="AB44" s="326"/>
+      <c r="AC44" s="326"/>
+      <c r="AD44" s="326"/>
+      <c r="AE44" s="326"/>
+      <c r="AF44" s="326"/>
+      <c r="AG44" s="326"/>
+      <c r="AH44" s="326"/>
       <c r="AI44" s="23"/>
       <c r="AJ44" s="88"/>
     </row>
@@ -12975,14 +12975,14 @@
       <c r="E45" s="44">
         <v>6</v>
       </c>
-      <c r="F45" s="360" t="s">
+      <c r="F45" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="G45" s="361"/>
-      <c r="H45" s="361"/>
-      <c r="I45" s="361"/>
-      <c r="J45" s="361"/>
-      <c r="K45" s="361"/>
+      <c r="G45" s="326"/>
+      <c r="H45" s="326"/>
+      <c r="I45" s="326"/>
+      <c r="J45" s="326"/>
+      <c r="K45" s="326"/>
       <c r="L45" s="141" t="s">
         <v>134</v>
       </c>
@@ -12993,25 +12993,25 @@
       <c r="Q45" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="R45" s="360" t="s">
+      <c r="R45" s="325" t="s">
         <v>110</v>
       </c>
-      <c r="S45" s="361"/>
-      <c r="T45" s="361"/>
-      <c r="U45" s="361"/>
-      <c r="V45" s="361"/>
-      <c r="W45" s="361"/>
-      <c r="X45" s="361"/>
-      <c r="Y45" s="361"/>
-      <c r="Z45" s="361"/>
-      <c r="AA45" s="361"/>
-      <c r="AB45" s="361"/>
-      <c r="AC45" s="361"/>
-      <c r="AD45" s="361"/>
-      <c r="AE45" s="361"/>
-      <c r="AF45" s="361"/>
-      <c r="AG45" s="361"/>
-      <c r="AH45" s="361"/>
+      <c r="S45" s="326"/>
+      <c r="T45" s="326"/>
+      <c r="U45" s="326"/>
+      <c r="V45" s="326"/>
+      <c r="W45" s="326"/>
+      <c r="X45" s="326"/>
+      <c r="Y45" s="326"/>
+      <c r="Z45" s="326"/>
+      <c r="AA45" s="326"/>
+      <c r="AB45" s="326"/>
+      <c r="AC45" s="326"/>
+      <c r="AD45" s="326"/>
+      <c r="AE45" s="326"/>
+      <c r="AF45" s="326"/>
+      <c r="AG45" s="326"/>
+      <c r="AH45" s="326"/>
       <c r="AI45" s="23"/>
       <c r="AJ45" s="88"/>
     </row>
@@ -13019,14 +13019,14 @@
       <c r="E46" s="44">
         <v>7</v>
       </c>
-      <c r="F46" s="360" t="s">
+      <c r="F46" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="361"/>
-      <c r="H46" s="361"/>
-      <c r="I46" s="361"/>
-      <c r="J46" s="361"/>
-      <c r="K46" s="361"/>
+      <c r="G46" s="326"/>
+      <c r="H46" s="326"/>
+      <c r="I46" s="326"/>
+      <c r="J46" s="326"/>
+      <c r="K46" s="326"/>
       <c r="L46" s="141" t="s">
         <v>123</v>
       </c>
@@ -13037,25 +13037,25 @@
       <c r="Q46" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="R46" s="360" t="s">
+      <c r="R46" s="325" t="s">
         <v>110</v>
       </c>
-      <c r="S46" s="361"/>
-      <c r="T46" s="361"/>
-      <c r="U46" s="361"/>
-      <c r="V46" s="361"/>
-      <c r="W46" s="361"/>
-      <c r="X46" s="361"/>
-      <c r="Y46" s="361"/>
-      <c r="Z46" s="361"/>
-      <c r="AA46" s="361"/>
-      <c r="AB46" s="361"/>
-      <c r="AC46" s="361"/>
-      <c r="AD46" s="361"/>
-      <c r="AE46" s="361"/>
-      <c r="AF46" s="361"/>
-      <c r="AG46" s="361"/>
-      <c r="AH46" s="361"/>
+      <c r="S46" s="326"/>
+      <c r="T46" s="326"/>
+      <c r="U46" s="326"/>
+      <c r="V46" s="326"/>
+      <c r="W46" s="326"/>
+      <c r="X46" s="326"/>
+      <c r="Y46" s="326"/>
+      <c r="Z46" s="326"/>
+      <c r="AA46" s="326"/>
+      <c r="AB46" s="326"/>
+      <c r="AC46" s="326"/>
+      <c r="AD46" s="326"/>
+      <c r="AE46" s="326"/>
+      <c r="AF46" s="326"/>
+      <c r="AG46" s="326"/>
+      <c r="AH46" s="326"/>
       <c r="AI46" s="23"/>
       <c r="AJ46" s="88"/>
     </row>
@@ -13063,14 +13063,14 @@
       <c r="E47" s="44">
         <v>8</v>
       </c>
-      <c r="F47" s="360" t="s">
+      <c r="F47" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="G47" s="361"/>
-      <c r="H47" s="361"/>
-      <c r="I47" s="361"/>
-      <c r="J47" s="361"/>
-      <c r="K47" s="361"/>
+      <c r="G47" s="326"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
       <c r="L47" s="141" t="s">
         <v>124</v>
       </c>
@@ -13081,25 +13081,25 @@
       <c r="Q47" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="R47" s="360" t="s">
+      <c r="R47" s="325" t="s">
         <v>118</v>
       </c>
-      <c r="S47" s="361"/>
-      <c r="T47" s="361"/>
-      <c r="U47" s="361"/>
-      <c r="V47" s="361"/>
-      <c r="W47" s="361"/>
-      <c r="X47" s="361"/>
-      <c r="Y47" s="361"/>
-      <c r="Z47" s="361"/>
-      <c r="AA47" s="361"/>
-      <c r="AB47" s="361"/>
-      <c r="AC47" s="361"/>
-      <c r="AD47" s="361"/>
-      <c r="AE47" s="361"/>
-      <c r="AF47" s="361"/>
-      <c r="AG47" s="361"/>
-      <c r="AH47" s="361"/>
+      <c r="S47" s="326"/>
+      <c r="T47" s="326"/>
+      <c r="U47" s="326"/>
+      <c r="V47" s="326"/>
+      <c r="W47" s="326"/>
+      <c r="X47" s="326"/>
+      <c r="Y47" s="326"/>
+      <c r="Z47" s="326"/>
+      <c r="AA47" s="326"/>
+      <c r="AB47" s="326"/>
+      <c r="AC47" s="326"/>
+      <c r="AD47" s="326"/>
+      <c r="AE47" s="326"/>
+      <c r="AF47" s="326"/>
+      <c r="AG47" s="326"/>
+      <c r="AH47" s="326"/>
       <c r="AI47" s="23"/>
       <c r="AJ47" s="88"/>
     </row>
@@ -13107,14 +13107,14 @@
       <c r="E48" s="44">
         <v>9</v>
       </c>
-      <c r="F48" s="360" t="s">
+      <c r="F48" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="G48" s="361"/>
-      <c r="H48" s="361"/>
-      <c r="I48" s="361"/>
-      <c r="J48" s="361"/>
-      <c r="K48" s="361"/>
+      <c r="G48" s="326"/>
+      <c r="H48" s="326"/>
+      <c r="I48" s="326"/>
+      <c r="J48" s="326"/>
+      <c r="K48" s="326"/>
       <c r="L48" s="141" t="s">
         <v>125</v>
       </c>
@@ -13125,25 +13125,25 @@
       <c r="Q48" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="R48" s="360" t="s">
+      <c r="R48" s="325" t="s">
         <v>118</v>
       </c>
-      <c r="S48" s="361"/>
-      <c r="T48" s="361"/>
-      <c r="U48" s="361"/>
-      <c r="V48" s="361"/>
-      <c r="W48" s="361"/>
-      <c r="X48" s="361"/>
-      <c r="Y48" s="361"/>
-      <c r="Z48" s="361"/>
-      <c r="AA48" s="361"/>
-      <c r="AB48" s="361"/>
-      <c r="AC48" s="361"/>
-      <c r="AD48" s="361"/>
-      <c r="AE48" s="361"/>
-      <c r="AF48" s="361"/>
-      <c r="AG48" s="361"/>
-      <c r="AH48" s="361"/>
+      <c r="S48" s="326"/>
+      <c r="T48" s="326"/>
+      <c r="U48" s="326"/>
+      <c r="V48" s="326"/>
+      <c r="W48" s="326"/>
+      <c r="X48" s="326"/>
+      <c r="Y48" s="326"/>
+      <c r="Z48" s="326"/>
+      <c r="AA48" s="326"/>
+      <c r="AB48" s="326"/>
+      <c r="AC48" s="326"/>
+      <c r="AD48" s="326"/>
+      <c r="AE48" s="326"/>
+      <c r="AF48" s="326"/>
+      <c r="AG48" s="326"/>
+      <c r="AH48" s="326"/>
       <c r="AI48" s="23"/>
       <c r="AJ48" s="88"/>
     </row>
@@ -13151,14 +13151,14 @@
       <c r="E49" s="44">
         <v>10</v>
       </c>
-      <c r="F49" s="360" t="s">
+      <c r="F49" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="G49" s="361"/>
-      <c r="H49" s="361"/>
-      <c r="I49" s="361"/>
-      <c r="J49" s="361"/>
-      <c r="K49" s="361"/>
+      <c r="G49" s="326"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="326"/>
+      <c r="J49" s="326"/>
+      <c r="K49" s="326"/>
       <c r="L49" s="141" t="s">
         <v>126</v>
       </c>
@@ -13169,25 +13169,25 @@
       <c r="Q49" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="R49" s="360" t="s">
+      <c r="R49" s="325" t="s">
         <v>118</v>
       </c>
-      <c r="S49" s="361"/>
-      <c r="T49" s="361"/>
-      <c r="U49" s="361"/>
-      <c r="V49" s="361"/>
-      <c r="W49" s="361"/>
-      <c r="X49" s="361"/>
-      <c r="Y49" s="361"/>
-      <c r="Z49" s="361"/>
-      <c r="AA49" s="361"/>
-      <c r="AB49" s="361"/>
-      <c r="AC49" s="361"/>
-      <c r="AD49" s="361"/>
-      <c r="AE49" s="361"/>
-      <c r="AF49" s="361"/>
-      <c r="AG49" s="361"/>
-      <c r="AH49" s="361"/>
+      <c r="S49" s="326"/>
+      <c r="T49" s="326"/>
+      <c r="U49" s="326"/>
+      <c r="V49" s="326"/>
+      <c r="W49" s="326"/>
+      <c r="X49" s="326"/>
+      <c r="Y49" s="326"/>
+      <c r="Z49" s="326"/>
+      <c r="AA49" s="326"/>
+      <c r="AB49" s="326"/>
+      <c r="AC49" s="326"/>
+      <c r="AD49" s="326"/>
+      <c r="AE49" s="326"/>
+      <c r="AF49" s="326"/>
+      <c r="AG49" s="326"/>
+      <c r="AH49" s="326"/>
       <c r="AI49" s="23"/>
       <c r="AJ49" s="88"/>
     </row>
@@ -13195,14 +13195,14 @@
       <c r="E50" s="44">
         <v>11</v>
       </c>
-      <c r="F50" s="360" t="s">
+      <c r="F50" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="G50" s="361"/>
-      <c r="H50" s="361"/>
-      <c r="I50" s="361"/>
-      <c r="J50" s="361"/>
-      <c r="K50" s="361"/>
+      <c r="G50" s="326"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
+      <c r="K50" s="326"/>
       <c r="L50" s="141" t="s">
         <v>127</v>
       </c>
@@ -13213,25 +13213,25 @@
       <c r="Q50" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="R50" s="360" t="s">
+      <c r="R50" s="325" t="s">
         <v>118</v>
       </c>
-      <c r="S50" s="361"/>
-      <c r="T50" s="361"/>
-      <c r="U50" s="361"/>
-      <c r="V50" s="361"/>
-      <c r="W50" s="361"/>
-      <c r="X50" s="361"/>
-      <c r="Y50" s="361"/>
-      <c r="Z50" s="361"/>
-      <c r="AA50" s="361"/>
-      <c r="AB50" s="361"/>
-      <c r="AC50" s="361"/>
-      <c r="AD50" s="361"/>
-      <c r="AE50" s="361"/>
-      <c r="AF50" s="361"/>
-      <c r="AG50" s="361"/>
-      <c r="AH50" s="361"/>
+      <c r="S50" s="326"/>
+      <c r="T50" s="326"/>
+      <c r="U50" s="326"/>
+      <c r="V50" s="326"/>
+      <c r="W50" s="326"/>
+      <c r="X50" s="326"/>
+      <c r="Y50" s="326"/>
+      <c r="Z50" s="326"/>
+      <c r="AA50" s="326"/>
+      <c r="AB50" s="326"/>
+      <c r="AC50" s="326"/>
+      <c r="AD50" s="326"/>
+      <c r="AE50" s="326"/>
+      <c r="AF50" s="326"/>
+      <c r="AG50" s="326"/>
+      <c r="AH50" s="326"/>
       <c r="AI50" s="23"/>
       <c r="AJ50" s="88"/>
     </row>
@@ -13239,14 +13239,14 @@
       <c r="E51" s="44">
         <v>12</v>
       </c>
-      <c r="F51" s="360" t="s">
+      <c r="F51" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="G51" s="361"/>
-      <c r="H51" s="361"/>
-      <c r="I51" s="361"/>
-      <c r="J51" s="361"/>
-      <c r="K51" s="361"/>
+      <c r="G51" s="326"/>
+      <c r="H51" s="326"/>
+      <c r="I51" s="326"/>
+      <c r="J51" s="326"/>
+      <c r="K51" s="326"/>
       <c r="L51" s="141" t="s">
         <v>128</v>
       </c>
@@ -13257,25 +13257,25 @@
       <c r="Q51" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="R51" s="360" t="s">
+      <c r="R51" s="325" t="s">
         <v>118</v>
       </c>
-      <c r="S51" s="361"/>
-      <c r="T51" s="361"/>
-      <c r="U51" s="361"/>
-      <c r="V51" s="361"/>
-      <c r="W51" s="361"/>
-      <c r="X51" s="361"/>
-      <c r="Y51" s="361"/>
-      <c r="Z51" s="361"/>
-      <c r="AA51" s="361"/>
-      <c r="AB51" s="361"/>
-      <c r="AC51" s="361"/>
-      <c r="AD51" s="361"/>
-      <c r="AE51" s="361"/>
-      <c r="AF51" s="361"/>
-      <c r="AG51" s="361"/>
-      <c r="AH51" s="361"/>
+      <c r="S51" s="326"/>
+      <c r="T51" s="326"/>
+      <c r="U51" s="326"/>
+      <c r="V51" s="326"/>
+      <c r="W51" s="326"/>
+      <c r="X51" s="326"/>
+      <c r="Y51" s="326"/>
+      <c r="Z51" s="326"/>
+      <c r="AA51" s="326"/>
+      <c r="AB51" s="326"/>
+      <c r="AC51" s="326"/>
+      <c r="AD51" s="326"/>
+      <c r="AE51" s="326"/>
+      <c r="AF51" s="326"/>
+      <c r="AG51" s="326"/>
+      <c r="AH51" s="326"/>
       <c r="AI51" s="23"/>
       <c r="AJ51" s="88"/>
     </row>
@@ -13283,14 +13283,14 @@
       <c r="E52" s="44">
         <v>13</v>
       </c>
-      <c r="F52" s="360" t="s">
+      <c r="F52" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="G52" s="361"/>
-      <c r="H52" s="361"/>
-      <c r="I52" s="361"/>
-      <c r="J52" s="361"/>
-      <c r="K52" s="361"/>
+      <c r="G52" s="326"/>
+      <c r="H52" s="326"/>
+      <c r="I52" s="326"/>
+      <c r="J52" s="326"/>
+      <c r="K52" s="326"/>
       <c r="L52" s="141" t="s">
         <v>129</v>
       </c>
@@ -13301,61 +13301,61 @@
       <c r="Q52" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="R52" s="360" t="s">
+      <c r="R52" s="325" t="s">
         <v>118</v>
       </c>
-      <c r="S52" s="361"/>
-      <c r="T52" s="361"/>
-      <c r="U52" s="361"/>
-      <c r="V52" s="361"/>
-      <c r="W52" s="361"/>
-      <c r="X52" s="361"/>
-      <c r="Y52" s="361"/>
-      <c r="Z52" s="361"/>
-      <c r="AA52" s="361"/>
-      <c r="AB52" s="361"/>
-      <c r="AC52" s="361"/>
-      <c r="AD52" s="361"/>
-      <c r="AE52" s="361"/>
-      <c r="AF52" s="361"/>
-      <c r="AG52" s="361"/>
-      <c r="AH52" s="361"/>
+      <c r="S52" s="326"/>
+      <c r="T52" s="326"/>
+      <c r="U52" s="326"/>
+      <c r="V52" s="326"/>
+      <c r="W52" s="326"/>
+      <c r="X52" s="326"/>
+      <c r="Y52" s="326"/>
+      <c r="Z52" s="326"/>
+      <c r="AA52" s="326"/>
+      <c r="AB52" s="326"/>
+      <c r="AC52" s="326"/>
+      <c r="AD52" s="326"/>
+      <c r="AE52" s="326"/>
+      <c r="AF52" s="326"/>
+      <c r="AG52" s="326"/>
+      <c r="AH52" s="326"/>
       <c r="AI52" s="23"/>
       <c r="AJ52" s="88"/>
     </row>
     <row r="53" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="E53" s="311" t="s">
+      <c r="E53" s="277" t="s">
         <v>51</v>
       </c>
-      <c r="F53" s="312"/>
-      <c r="G53" s="312"/>
-      <c r="H53" s="312"/>
-      <c r="I53" s="312"/>
-      <c r="J53" s="312"/>
-      <c r="K53" s="312"/>
-      <c r="L53" s="312"/>
-      <c r="M53" s="312"/>
-      <c r="N53" s="312"/>
-      <c r="O53" s="312"/>
-      <c r="P53" s="312"/>
-      <c r="Q53" s="312"/>
-      <c r="R53" s="312"/>
-      <c r="S53" s="312"/>
-      <c r="T53" s="312"/>
-      <c r="U53" s="312"/>
-      <c r="V53" s="312"/>
-      <c r="W53" s="312"/>
-      <c r="X53" s="312"/>
-      <c r="Y53" s="312"/>
-      <c r="Z53" s="312"/>
-      <c r="AA53" s="312"/>
-      <c r="AB53" s="312"/>
-      <c r="AC53" s="312"/>
-      <c r="AD53" s="312"/>
-      <c r="AE53" s="312"/>
-      <c r="AF53" s="312"/>
-      <c r="AG53" s="312"/>
-      <c r="AH53" s="313"/>
+      <c r="F53" s="278"/>
+      <c r="G53" s="278"/>
+      <c r="H53" s="278"/>
+      <c r="I53" s="278"/>
+      <c r="J53" s="278"/>
+      <c r="K53" s="278"/>
+      <c r="L53" s="278"/>
+      <c r="M53" s="278"/>
+      <c r="N53" s="278"/>
+      <c r="O53" s="278"/>
+      <c r="P53" s="278"/>
+      <c r="Q53" s="278"/>
+      <c r="R53" s="278"/>
+      <c r="S53" s="278"/>
+      <c r="T53" s="278"/>
+      <c r="U53" s="278"/>
+      <c r="V53" s="278"/>
+      <c r="W53" s="278"/>
+      <c r="X53" s="278"/>
+      <c r="Y53" s="278"/>
+      <c r="Z53" s="278"/>
+      <c r="AA53" s="278"/>
+      <c r="AB53" s="278"/>
+      <c r="AC53" s="278"/>
+      <c r="AD53" s="278"/>
+      <c r="AE53" s="278"/>
+      <c r="AF53" s="278"/>
+      <c r="AG53" s="278"/>
+      <c r="AH53" s="279"/>
       <c r="AI53" s="88"/>
       <c r="AJ53" s="88"/>
     </row>
@@ -13609,72 +13609,72 @@
       </c>
     </row>
     <row r="68" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E68" s="350" t="s">
+      <c r="E68" s="339" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="351"/>
-      <c r="G68" s="352"/>
-      <c r="H68" s="353" t="s">
+      <c r="F68" s="340"/>
+      <c r="G68" s="341"/>
+      <c r="H68" s="342" t="s">
         <v>27</v>
       </c>
-      <c r="I68" s="354"/>
-      <c r="J68" s="355"/>
-      <c r="K68" s="356" t="s">
+      <c r="I68" s="343"/>
+      <c r="J68" s="344"/>
+      <c r="K68" s="365" t="s">
         <v>137</v>
       </c>
-      <c r="L68" s="357"/>
-      <c r="M68" s="357"/>
-      <c r="N68" s="358"/>
-      <c r="O68" s="359" t="s">
+      <c r="L68" s="366"/>
+      <c r="M68" s="366"/>
+      <c r="N68" s="367"/>
+      <c r="O68" s="368" t="s">
         <v>68</v>
       </c>
-      <c r="P68" s="359"/>
-      <c r="Q68" s="359"/>
-      <c r="R68" s="359"/>
-      <c r="S68" s="359"/>
-      <c r="T68" s="359"/>
-      <c r="U68" s="359"/>
-      <c r="V68" s="359"/>
-      <c r="W68" s="359"/>
-      <c r="X68" s="359"/>
-      <c r="Y68" s="359"/>
-      <c r="Z68" s="359"/>
-      <c r="AA68" s="359"/>
-      <c r="AB68" s="359"/>
+      <c r="P68" s="368"/>
+      <c r="Q68" s="368"/>
+      <c r="R68" s="368"/>
+      <c r="S68" s="368"/>
+      <c r="T68" s="368"/>
+      <c r="U68" s="368"/>
+      <c r="V68" s="368"/>
+      <c r="W68" s="368"/>
+      <c r="X68" s="368"/>
+      <c r="Y68" s="368"/>
+      <c r="Z68" s="368"/>
+      <c r="AA68" s="368"/>
+      <c r="AB68" s="368"/>
     </row>
     <row r="69" spans="2:70" x14ac:dyDescent="0.15">
-      <c r="E69" s="236">
+      <c r="E69" s="196">
         <v>0</v>
       </c>
-      <c r="F69" s="237"/>
-      <c r="G69" s="238"/>
-      <c r="H69" s="332" t="s">
+      <c r="F69" s="197"/>
+      <c r="G69" s="198"/>
+      <c r="H69" s="327" t="s">
         <v>110</v>
       </c>
-      <c r="I69" s="237"/>
-      <c r="J69" s="238"/>
-      <c r="K69" s="369" t="s">
+      <c r="I69" s="197"/>
+      <c r="J69" s="198"/>
+      <c r="K69" s="322" t="s">
         <v>110</v>
       </c>
-      <c r="L69" s="372"/>
-      <c r="M69" s="372"/>
-      <c r="N69" s="373"/>
-      <c r="O69" s="374" t="s">
+      <c r="L69" s="328"/>
+      <c r="M69" s="328"/>
+      <c r="N69" s="329"/>
+      <c r="O69" s="330" t="s">
         <v>110</v>
       </c>
-      <c r="P69" s="374"/>
-      <c r="Q69" s="374"/>
-      <c r="R69" s="374"/>
-      <c r="S69" s="374"/>
-      <c r="T69" s="374"/>
-      <c r="U69" s="374"/>
-      <c r="V69" s="374"/>
-      <c r="W69" s="374"/>
-      <c r="X69" s="374"/>
-      <c r="Y69" s="374"/>
-      <c r="Z69" s="374"/>
-      <c r="AA69" s="374"/>
-      <c r="AB69" s="374"/>
+      <c r="P69" s="330"/>
+      <c r="Q69" s="330"/>
+      <c r="R69" s="330"/>
+      <c r="S69" s="330"/>
+      <c r="T69" s="330"/>
+      <c r="U69" s="330"/>
+      <c r="V69" s="330"/>
+      <c r="W69" s="330"/>
+      <c r="X69" s="330"/>
+      <c r="Y69" s="330"/>
+      <c r="Z69" s="330"/>
+      <c r="AA69" s="330"/>
+      <c r="AB69" s="330"/>
     </row>
     <row r="70" spans="2:70" x14ac:dyDescent="0.15">
       <c r="E70" s="41"/>
@@ -13913,43 +13913,43 @@
     <row r="81" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C81" s="41"/>
       <c r="D81" s="42"/>
-      <c r="F81" s="375" t="s">
+      <c r="F81" s="331" t="s">
         <v>142</v>
       </c>
-      <c r="G81" s="376"/>
-      <c r="H81" s="377"/>
-      <c r="I81" s="333" t="s">
+      <c r="G81" s="332"/>
+      <c r="H81" s="333"/>
+      <c r="I81" s="334" t="s">
         <v>145</v>
       </c>
-      <c r="J81" s="334"/>
-      <c r="K81" s="334"/>
-      <c r="L81" s="334"/>
-      <c r="M81" s="335"/>
-      <c r="N81" s="375" t="s">
+      <c r="J81" s="335"/>
+      <c r="K81" s="335"/>
+      <c r="L81" s="335"/>
+      <c r="M81" s="336"/>
+      <c r="N81" s="331" t="s">
         <v>92</v>
       </c>
-      <c r="O81" s="376"/>
-      <c r="P81" s="377"/>
-      <c r="Q81" s="333" t="s">
+      <c r="O81" s="332"/>
+      <c r="P81" s="333"/>
+      <c r="Q81" s="334" t="s">
         <v>146</v>
       </c>
-      <c r="R81" s="334"/>
-      <c r="S81" s="334"/>
-      <c r="T81" s="334"/>
-      <c r="U81" s="334"/>
-      <c r="V81" s="334"/>
-      <c r="W81" s="334"/>
-      <c r="X81" s="334"/>
-      <c r="Y81" s="334"/>
-      <c r="Z81" s="334"/>
-      <c r="AA81" s="334"/>
-      <c r="AB81" s="334"/>
-      <c r="AC81" s="334"/>
-      <c r="AD81" s="334"/>
-      <c r="AE81" s="334"/>
-      <c r="AF81" s="334"/>
-      <c r="AG81" s="334"/>
-      <c r="AH81" s="335"/>
+      <c r="R81" s="335"/>
+      <c r="S81" s="335"/>
+      <c r="T81" s="335"/>
+      <c r="U81" s="335"/>
+      <c r="V81" s="335"/>
+      <c r="W81" s="335"/>
+      <c r="X81" s="335"/>
+      <c r="Y81" s="335"/>
+      <c r="Z81" s="335"/>
+      <c r="AA81" s="335"/>
+      <c r="AB81" s="335"/>
+      <c r="AC81" s="335"/>
+      <c r="AD81" s="335"/>
+      <c r="AE81" s="335"/>
+      <c r="AF81" s="335"/>
+      <c r="AG81" s="335"/>
+      <c r="AH81" s="336"/>
     </row>
     <row r="82" spans="3:67" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C82" s="117"/>
@@ -14059,15 +14059,15 @@
     </row>
     <row r="85" spans="3:67" x14ac:dyDescent="0.15">
       <c r="C85" s="41"/>
-      <c r="F85" s="336" t="s">
+      <c r="F85" s="354" t="s">
         <v>112</v>
       </c>
-      <c r="G85" s="338" t="s">
+      <c r="G85" s="356" t="s">
         <v>96</v>
       </c>
-      <c r="H85" s="338"/>
-      <c r="I85" s="338"/>
-      <c r="J85" s="338"/>
+      <c r="H85" s="356"/>
+      <c r="I85" s="356"/>
+      <c r="J85" s="356"/>
       <c r="K85" s="161" t="s">
         <v>97</v>
       </c>
@@ -14094,20 +14094,20 @@
       <c r="AB85" s="162"/>
       <c r="AC85" s="162"/>
       <c r="AD85" s="163"/>
-      <c r="AE85" s="339" t="s">
+      <c r="AE85" s="357" t="s">
         <v>21</v>
       </c>
-      <c r="AF85" s="340"/>
-      <c r="AG85" s="340"/>
-      <c r="AH85" s="341"/>
+      <c r="AF85" s="358"/>
+      <c r="AG85" s="358"/>
+      <c r="AH85" s="359"/>
       <c r="AI85" s="113"/>
     </row>
     <row r="86" spans="3:67" x14ac:dyDescent="0.15">
-      <c r="F86" s="337"/>
-      <c r="G86" s="338"/>
-      <c r="H86" s="338"/>
-      <c r="I86" s="338"/>
-      <c r="J86" s="338"/>
+      <c r="F86" s="355"/>
+      <c r="G86" s="356"/>
+      <c r="H86" s="356"/>
+      <c r="I86" s="356"/>
+      <c r="J86" s="356"/>
       <c r="K86" s="164"/>
       <c r="L86" s="165"/>
       <c r="M86" s="165"/>
@@ -14132,10 +14132,10 @@
       <c r="AB86" s="165"/>
       <c r="AC86" s="165"/>
       <c r="AD86" s="166"/>
-      <c r="AE86" s="342"/>
-      <c r="AF86" s="343"/>
-      <c r="AG86" s="343"/>
-      <c r="AH86" s="344"/>
+      <c r="AE86" s="360"/>
+      <c r="AF86" s="361"/>
+      <c r="AG86" s="361"/>
+      <c r="AH86" s="362"/>
       <c r="AI86" s="113"/>
     </row>
     <row r="87" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14156,13 +14156,13 @@
       <c r="N87" s="159"/>
       <c r="O87" s="159"/>
       <c r="P87" s="160"/>
-      <c r="Q87" s="362" t="s">
+      <c r="Q87" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="R87" s="363"/>
-      <c r="S87" s="363"/>
-      <c r="T87" s="363"/>
-      <c r="U87" s="363"/>
+      <c r="R87" s="321"/>
+      <c r="S87" s="321"/>
+      <c r="T87" s="321"/>
+      <c r="U87" s="321"/>
       <c r="V87" s="141" t="s">
         <v>119</v>
       </c>
@@ -14176,10 +14176,10 @@
       <c r="AB87" s="175"/>
       <c r="AC87" s="175"/>
       <c r="AD87" s="176"/>
-      <c r="AE87" s="369"/>
-      <c r="AF87" s="370"/>
-      <c r="AG87" s="370"/>
-      <c r="AH87" s="371"/>
+      <c r="AE87" s="322"/>
+      <c r="AF87" s="323"/>
+      <c r="AG87" s="323"/>
+      <c r="AH87" s="324"/>
       <c r="AI87" s="113"/>
     </row>
     <row r="88" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14200,13 +14200,13 @@
       <c r="N88" s="159"/>
       <c r="O88" s="159"/>
       <c r="P88" s="160"/>
-      <c r="Q88" s="362" t="s">
+      <c r="Q88" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="R88" s="363"/>
-      <c r="S88" s="363"/>
-      <c r="T88" s="363"/>
-      <c r="U88" s="363"/>
+      <c r="R88" s="321"/>
+      <c r="S88" s="321"/>
+      <c r="T88" s="321"/>
+      <c r="U88" s="321"/>
       <c r="V88" s="141" t="s">
         <v>120</v>
       </c>
@@ -14220,10 +14220,10 @@
       <c r="AB88" s="175"/>
       <c r="AC88" s="175"/>
       <c r="AD88" s="176"/>
-      <c r="AE88" s="369"/>
-      <c r="AF88" s="370"/>
-      <c r="AG88" s="370"/>
-      <c r="AH88" s="371"/>
+      <c r="AE88" s="322"/>
+      <c r="AF88" s="323"/>
+      <c r="AG88" s="323"/>
+      <c r="AH88" s="324"/>
     </row>
     <row r="89" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F89" s="112">
@@ -14243,13 +14243,13 @@
       <c r="N89" s="159"/>
       <c r="O89" s="159"/>
       <c r="P89" s="160"/>
-      <c r="Q89" s="362" t="s">
+      <c r="Q89" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="R89" s="363"/>
-      <c r="S89" s="363"/>
-      <c r="T89" s="363"/>
-      <c r="U89" s="363"/>
+      <c r="R89" s="321"/>
+      <c r="S89" s="321"/>
+      <c r="T89" s="321"/>
+      <c r="U89" s="321"/>
       <c r="V89" s="141" t="s">
         <v>121</v>
       </c>
@@ -14263,10 +14263,10 @@
       <c r="AB89" s="175"/>
       <c r="AC89" s="175"/>
       <c r="AD89" s="176"/>
-      <c r="AE89" s="369"/>
-      <c r="AF89" s="370"/>
-      <c r="AG89" s="370"/>
-      <c r="AH89" s="371"/>
+      <c r="AE89" s="322"/>
+      <c r="AF89" s="323"/>
+      <c r="AG89" s="323"/>
+      <c r="AH89" s="324"/>
     </row>
     <row r="90" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F90" s="112">
@@ -14286,13 +14286,13 @@
       <c r="N90" s="159"/>
       <c r="O90" s="159"/>
       <c r="P90" s="160"/>
-      <c r="Q90" s="362" t="s">
+      <c r="Q90" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="R90" s="363"/>
-      <c r="S90" s="363"/>
-      <c r="T90" s="363"/>
-      <c r="U90" s="363"/>
+      <c r="R90" s="321"/>
+      <c r="S90" s="321"/>
+      <c r="T90" s="321"/>
+      <c r="U90" s="321"/>
       <c r="V90" s="141" t="s">
         <v>122</v>
       </c>
@@ -14306,10 +14306,10 @@
       <c r="AB90" s="175"/>
       <c r="AC90" s="175"/>
       <c r="AD90" s="176"/>
-      <c r="AE90" s="369"/>
-      <c r="AF90" s="370"/>
-      <c r="AG90" s="370"/>
-      <c r="AH90" s="371"/>
+      <c r="AE90" s="322"/>
+      <c r="AF90" s="323"/>
+      <c r="AG90" s="323"/>
+      <c r="AH90" s="324"/>
       <c r="AI90" s="113"/>
     </row>
     <row r="91" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14330,13 +14330,13 @@
       <c r="N91" s="159"/>
       <c r="O91" s="159"/>
       <c r="P91" s="160"/>
-      <c r="Q91" s="362" t="s">
+      <c r="Q91" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="R91" s="363"/>
-      <c r="S91" s="363"/>
-      <c r="T91" s="363"/>
-      <c r="U91" s="363"/>
+      <c r="R91" s="321"/>
+      <c r="S91" s="321"/>
+      <c r="T91" s="321"/>
+      <c r="U91" s="321"/>
       <c r="V91" s="141" t="s">
         <v>130</v>
       </c>
@@ -14350,10 +14350,10 @@
       <c r="AB91" s="175"/>
       <c r="AC91" s="175"/>
       <c r="AD91" s="176"/>
-      <c r="AE91" s="369"/>
-      <c r="AF91" s="370"/>
-      <c r="AG91" s="370"/>
-      <c r="AH91" s="371"/>
+      <c r="AE91" s="322"/>
+      <c r="AF91" s="323"/>
+      <c r="AG91" s="323"/>
+      <c r="AH91" s="324"/>
     </row>
     <row r="92" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F92" s="112">
@@ -14373,13 +14373,13 @@
       <c r="N92" s="159"/>
       <c r="O92" s="159"/>
       <c r="P92" s="160"/>
-      <c r="Q92" s="362" t="s">
+      <c r="Q92" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="R92" s="363"/>
-      <c r="S92" s="363"/>
-      <c r="T92" s="363"/>
-      <c r="U92" s="363"/>
+      <c r="R92" s="321"/>
+      <c r="S92" s="321"/>
+      <c r="T92" s="321"/>
+      <c r="U92" s="321"/>
       <c r="V92" s="141" t="s">
         <v>134</v>
       </c>
@@ -14393,10 +14393,10 @@
       <c r="AB92" s="175"/>
       <c r="AC92" s="175"/>
       <c r="AD92" s="176"/>
-      <c r="AE92" s="369"/>
-      <c r="AF92" s="370"/>
-      <c r="AG92" s="370"/>
-      <c r="AH92" s="371"/>
+      <c r="AE92" s="322"/>
+      <c r="AF92" s="323"/>
+      <c r="AG92" s="323"/>
+      <c r="AH92" s="324"/>
     </row>
     <row r="93" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F93" s="112">
@@ -14416,13 +14416,13 @@
       <c r="N93" s="159"/>
       <c r="O93" s="159"/>
       <c r="P93" s="160"/>
-      <c r="Q93" s="362" t="s">
+      <c r="Q93" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="R93" s="363"/>
-      <c r="S93" s="363"/>
-      <c r="T93" s="363"/>
-      <c r="U93" s="363"/>
+      <c r="R93" s="321"/>
+      <c r="S93" s="321"/>
+      <c r="T93" s="321"/>
+      <c r="U93" s="321"/>
       <c r="V93" s="141" t="s">
         <v>123</v>
       </c>
@@ -14436,10 +14436,10 @@
       <c r="AB93" s="175"/>
       <c r="AC93" s="175"/>
       <c r="AD93" s="176"/>
-      <c r="AE93" s="369"/>
-      <c r="AF93" s="370"/>
-      <c r="AG93" s="370"/>
-      <c r="AH93" s="371"/>
+      <c r="AE93" s="322"/>
+      <c r="AF93" s="323"/>
+      <c r="AG93" s="323"/>
+      <c r="AH93" s="324"/>
       <c r="AI93" s="113"/>
     </row>
     <row r="94" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14460,13 +14460,13 @@
       <c r="N94" s="159"/>
       <c r="O94" s="159"/>
       <c r="P94" s="160"/>
-      <c r="Q94" s="362" t="s">
+      <c r="Q94" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="R94" s="363"/>
-      <c r="S94" s="363"/>
-      <c r="T94" s="363"/>
-      <c r="U94" s="363"/>
+      <c r="R94" s="321"/>
+      <c r="S94" s="321"/>
+      <c r="T94" s="321"/>
+      <c r="U94" s="321"/>
       <c r="V94" s="141" t="s">
         <v>124</v>
       </c>
@@ -14480,10 +14480,10 @@
       <c r="AB94" s="175"/>
       <c r="AC94" s="175"/>
       <c r="AD94" s="176"/>
-      <c r="AE94" s="369"/>
-      <c r="AF94" s="370"/>
-      <c r="AG94" s="370"/>
-      <c r="AH94" s="371"/>
+      <c r="AE94" s="322"/>
+      <c r="AF94" s="323"/>
+      <c r="AG94" s="323"/>
+      <c r="AH94" s="324"/>
     </row>
     <row r="95" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F95" s="112">
@@ -14503,13 +14503,13 @@
       <c r="N95" s="159"/>
       <c r="O95" s="159"/>
       <c r="P95" s="160"/>
-      <c r="Q95" s="362" t="s">
+      <c r="Q95" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="R95" s="363"/>
-      <c r="S95" s="363"/>
-      <c r="T95" s="363"/>
-      <c r="U95" s="363"/>
+      <c r="R95" s="321"/>
+      <c r="S95" s="321"/>
+      <c r="T95" s="321"/>
+      <c r="U95" s="321"/>
       <c r="V95" s="141" t="s">
         <v>125</v>
       </c>
@@ -14523,10 +14523,10 @@
       <c r="AB95" s="175"/>
       <c r="AC95" s="175"/>
       <c r="AD95" s="176"/>
-      <c r="AE95" s="369"/>
-      <c r="AF95" s="370"/>
-      <c r="AG95" s="370"/>
-      <c r="AH95" s="371"/>
+      <c r="AE95" s="322"/>
+      <c r="AF95" s="323"/>
+      <c r="AG95" s="323"/>
+      <c r="AH95" s="324"/>
     </row>
     <row r="96" spans="3:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F96" s="112">
@@ -14546,13 +14546,13 @@
       <c r="N96" s="159"/>
       <c r="O96" s="159"/>
       <c r="P96" s="160"/>
-      <c r="Q96" s="362" t="s">
+      <c r="Q96" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="R96" s="363"/>
-      <c r="S96" s="363"/>
-      <c r="T96" s="363"/>
-      <c r="U96" s="363"/>
+      <c r="R96" s="321"/>
+      <c r="S96" s="321"/>
+      <c r="T96" s="321"/>
+      <c r="U96" s="321"/>
       <c r="V96" s="141" t="s">
         <v>126</v>
       </c>
@@ -14566,10 +14566,10 @@
       <c r="AB96" s="175"/>
       <c r="AC96" s="175"/>
       <c r="AD96" s="176"/>
-      <c r="AE96" s="369"/>
-      <c r="AF96" s="370"/>
-      <c r="AG96" s="370"/>
-      <c r="AH96" s="371"/>
+      <c r="AE96" s="322"/>
+      <c r="AF96" s="323"/>
+      <c r="AG96" s="323"/>
+      <c r="AH96" s="324"/>
       <c r="AI96" s="113"/>
     </row>
     <row r="97" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14590,13 +14590,13 @@
       <c r="N97" s="159"/>
       <c r="O97" s="159"/>
       <c r="P97" s="160"/>
-      <c r="Q97" s="362" t="s">
+      <c r="Q97" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="R97" s="363"/>
-      <c r="S97" s="363"/>
-      <c r="T97" s="363"/>
-      <c r="U97" s="363"/>
+      <c r="R97" s="321"/>
+      <c r="S97" s="321"/>
+      <c r="T97" s="321"/>
+      <c r="U97" s="321"/>
       <c r="V97" s="141" t="s">
         <v>127</v>
       </c>
@@ -14610,10 +14610,10 @@
       <c r="AB97" s="175"/>
       <c r="AC97" s="175"/>
       <c r="AD97" s="176"/>
-      <c r="AE97" s="369"/>
-      <c r="AF97" s="370"/>
-      <c r="AG97" s="370"/>
-      <c r="AH97" s="371"/>
+      <c r="AE97" s="322"/>
+      <c r="AF97" s="323"/>
+      <c r="AG97" s="323"/>
+      <c r="AH97" s="324"/>
     </row>
     <row r="98" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F98" s="112">
@@ -14633,13 +14633,13 @@
       <c r="N98" s="159"/>
       <c r="O98" s="159"/>
       <c r="P98" s="160"/>
-      <c r="Q98" s="362" t="s">
+      <c r="Q98" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="R98" s="363"/>
-      <c r="S98" s="363"/>
-      <c r="T98" s="363"/>
-      <c r="U98" s="363"/>
+      <c r="R98" s="321"/>
+      <c r="S98" s="321"/>
+      <c r="T98" s="321"/>
+      <c r="U98" s="321"/>
       <c r="V98" s="141" t="s">
         <v>128</v>
       </c>
@@ -14653,10 +14653,10 @@
       <c r="AB98" s="175"/>
       <c r="AC98" s="175"/>
       <c r="AD98" s="176"/>
-      <c r="AE98" s="369"/>
-      <c r="AF98" s="370"/>
-      <c r="AG98" s="370"/>
-      <c r="AH98" s="371"/>
+      <c r="AE98" s="322"/>
+      <c r="AF98" s="323"/>
+      <c r="AG98" s="323"/>
+      <c r="AH98" s="324"/>
     </row>
     <row r="99" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F99" s="112">
@@ -14676,13 +14676,13 @@
       <c r="N99" s="159"/>
       <c r="O99" s="159"/>
       <c r="P99" s="160"/>
-      <c r="Q99" s="362" t="s">
+      <c r="Q99" s="320" t="s">
         <v>115</v>
       </c>
-      <c r="R99" s="363"/>
-      <c r="S99" s="363"/>
-      <c r="T99" s="363"/>
-      <c r="U99" s="363"/>
+      <c r="R99" s="321"/>
+      <c r="S99" s="321"/>
+      <c r="T99" s="321"/>
+      <c r="U99" s="321"/>
       <c r="V99" s="141" t="s">
         <v>129</v>
       </c>
@@ -14696,10 +14696,10 @@
       <c r="AB99" s="175"/>
       <c r="AC99" s="175"/>
       <c r="AD99" s="176"/>
-      <c r="AE99" s="369"/>
-      <c r="AF99" s="370"/>
-      <c r="AG99" s="370"/>
-      <c r="AH99" s="371"/>
+      <c r="AE99" s="322"/>
+      <c r="AF99" s="323"/>
+      <c r="AG99" s="323"/>
+      <c r="AH99" s="324"/>
       <c r="AI99" s="113"/>
     </row>
     <row r="102" spans="3:35" x14ac:dyDescent="0.15">
@@ -14741,30 +14741,82 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="Q92:U92"/>
-    <mergeCell ref="AE92:AH92"/>
-    <mergeCell ref="Q87:U87"/>
-    <mergeCell ref="AE87:AH87"/>
-    <mergeCell ref="Q88:U88"/>
-    <mergeCell ref="AE88:AH88"/>
-    <mergeCell ref="Q89:U89"/>
-    <mergeCell ref="AE89:AH89"/>
-    <mergeCell ref="Q90:U90"/>
-    <mergeCell ref="AE90:AH90"/>
-    <mergeCell ref="Q91:U91"/>
-    <mergeCell ref="AE91:AH91"/>
-    <mergeCell ref="Q98:U98"/>
-    <mergeCell ref="AE98:AH98"/>
-    <mergeCell ref="Q93:U93"/>
-    <mergeCell ref="AE93:AH93"/>
-    <mergeCell ref="Q94:U94"/>
-    <mergeCell ref="AE94:AH94"/>
-    <mergeCell ref="Q95:U95"/>
-    <mergeCell ref="AE95:AH95"/>
-    <mergeCell ref="Q96:U96"/>
-    <mergeCell ref="AE96:AH96"/>
-    <mergeCell ref="Q97:U97"/>
-    <mergeCell ref="AE97:AH97"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="U28:Z28"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I10:AH10"/>
+    <mergeCell ref="I11:AH11"/>
+    <mergeCell ref="I12:AH12"/>
+    <mergeCell ref="Q81:AH81"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:J86"/>
+    <mergeCell ref="AE85:AH86"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="W38:AH39"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="O68:AB68"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="W40:AH40"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="R41:V41"/>
+    <mergeCell ref="W41:AH41"/>
+    <mergeCell ref="Q99:U99"/>
+    <mergeCell ref="K22:AH22"/>
+    <mergeCell ref="K23:AH23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E37:AH37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:K39"/>
+    <mergeCell ref="L38:P39"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="R42:V42"/>
+    <mergeCell ref="W42:AH42"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="W46:AH46"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="R47:V47"/>
+    <mergeCell ref="W47:AH47"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="R43:V43"/>
+    <mergeCell ref="W43:AH43"/>
+    <mergeCell ref="F44:K44"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="W44:AH44"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="W45:AH45"/>
     <mergeCell ref="AE99:AH99"/>
     <mergeCell ref="F50:K50"/>
     <mergeCell ref="R50:V50"/>
@@ -14789,82 +14841,30 @@
     <mergeCell ref="F81:H81"/>
     <mergeCell ref="I81:M81"/>
     <mergeCell ref="N81:P81"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="R42:V42"/>
-    <mergeCell ref="W42:AH42"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="W46:AH46"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="R47:V47"/>
-    <mergeCell ref="W47:AH47"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="R43:V43"/>
-    <mergeCell ref="W43:AH43"/>
-    <mergeCell ref="F44:K44"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="W44:AH44"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="R45:V45"/>
-    <mergeCell ref="W45:AH45"/>
-    <mergeCell ref="Q99:U99"/>
-    <mergeCell ref="K22:AH22"/>
-    <mergeCell ref="K23:AH23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E37:AH37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:K39"/>
-    <mergeCell ref="L38:P39"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I10:AH10"/>
-    <mergeCell ref="I11:AH11"/>
-    <mergeCell ref="I12:AH12"/>
-    <mergeCell ref="Q81:AH81"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:J86"/>
-    <mergeCell ref="AE85:AH86"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="W38:AH39"/>
-    <mergeCell ref="R39:V39"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="O68:AB68"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="W40:AH40"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="R41:V41"/>
-    <mergeCell ref="W41:AH41"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="U28:Z28"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="Q98:U98"/>
+    <mergeCell ref="AE98:AH98"/>
+    <mergeCell ref="Q93:U93"/>
+    <mergeCell ref="AE93:AH93"/>
+    <mergeCell ref="Q94:U94"/>
+    <mergeCell ref="AE94:AH94"/>
+    <mergeCell ref="Q95:U95"/>
+    <mergeCell ref="AE95:AH95"/>
+    <mergeCell ref="Q96:U96"/>
+    <mergeCell ref="AE96:AH96"/>
+    <mergeCell ref="Q97:U97"/>
+    <mergeCell ref="AE97:AH97"/>
+    <mergeCell ref="Q92:U92"/>
+    <mergeCell ref="AE92:AH92"/>
+    <mergeCell ref="Q87:U87"/>
+    <mergeCell ref="AE87:AH87"/>
+    <mergeCell ref="Q88:U88"/>
+    <mergeCell ref="AE88:AH88"/>
+    <mergeCell ref="Q89:U89"/>
+    <mergeCell ref="AE89:AH89"/>
+    <mergeCell ref="Q90:U90"/>
+    <mergeCell ref="AE90:AH90"/>
+    <mergeCell ref="Q91:U91"/>
+    <mergeCell ref="AE91:AH91"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="3">
